--- a/posesaxl.xlsx
+++ b/posesaxl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jam/go/i9posesa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demet\go\i9posesa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE46EF0-E230-1643-A0CD-38A3613885FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804B1399-7E94-4A39-B886-E5380DC563B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20420" activeTab="4" xr2:uid="{6E1BAD38-7403-304E-BB03-5337C44A7D19}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6E1BAD38-7403-304E-BB03-5337C44A7D19}"/>
   </bookViews>
   <sheets>
     <sheet name="ImageSet" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="DynamicStretches" sheetId="3" r:id="rId3"/>
     <sheet name="StaticStretches" sheetId="4" r:id="rId4"/>
     <sheet name="Samples" sheetId="5" r:id="rId5"/>
+    <sheet name="Transitions" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4331" uniqueCount="4135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4482" uniqueCount="4265">
   <si>
     <t>ID</t>
   </si>
@@ -12445,6 +12446,396 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>Pushups - Pushups</t>
+  </si>
+  <si>
+    <t>Pushups - Squats</t>
+  </si>
+  <si>
+    <t>Pushups - Burpees</t>
+  </si>
+  <si>
+    <t>Pushups - Jumps</t>
+  </si>
+  <si>
+    <t>Pushups - Lunges</t>
+  </si>
+  <si>
+    <t>Pushups - Mountain Climbers</t>
+  </si>
+  <si>
+    <t>Pushups - Abs</t>
+  </si>
+  <si>
+    <t>Pushups - Bridges</t>
+  </si>
+  <si>
+    <t>Pushups - Kicks</t>
+  </si>
+  <si>
+    <t>Pushups - Planks</t>
+  </si>
+  <si>
+    <t>Pushups - Supermans</t>
+  </si>
+  <si>
+    <t>Squats - Pushups</t>
+  </si>
+  <si>
+    <t>Squats - Squats</t>
+  </si>
+  <si>
+    <t>Squats - Burpees</t>
+  </si>
+  <si>
+    <t>Squats - Jumps</t>
+  </si>
+  <si>
+    <t>Squats - Lunges</t>
+  </si>
+  <si>
+    <t>Squats - Mountain Climbers</t>
+  </si>
+  <si>
+    <t>Squats - Abs</t>
+  </si>
+  <si>
+    <t>Squats - Bridges</t>
+  </si>
+  <si>
+    <t>Squats - Kicks</t>
+  </si>
+  <si>
+    <t>Squats - Planks</t>
+  </si>
+  <si>
+    <t>Squats - Supermans</t>
+  </si>
+  <si>
+    <t>Burpees - Pushups</t>
+  </si>
+  <si>
+    <t>Burpees - Squats</t>
+  </si>
+  <si>
+    <t>Burpees - Burpees</t>
+  </si>
+  <si>
+    <t>Burpees - Jumps</t>
+  </si>
+  <si>
+    <t>Burpees - Lunges</t>
+  </si>
+  <si>
+    <t>Burpees - Mountain Climbers</t>
+  </si>
+  <si>
+    <t>Burpees - Abs</t>
+  </si>
+  <si>
+    <t>Burpees - Bridges</t>
+  </si>
+  <si>
+    <t>Burpees - Kicks</t>
+  </si>
+  <si>
+    <t>Burpees - Planks</t>
+  </si>
+  <si>
+    <t>Burpees - Supermans</t>
+  </si>
+  <si>
+    <t>Jumps - Pushups</t>
+  </si>
+  <si>
+    <t>Jumps - Squats</t>
+  </si>
+  <si>
+    <t>Jumps - Burpees</t>
+  </si>
+  <si>
+    <t>Jumps - Jumps</t>
+  </si>
+  <si>
+    <t>Jumps - Lunges</t>
+  </si>
+  <si>
+    <t>Jumps - Mountain Climbers</t>
+  </si>
+  <si>
+    <t>Jumps - Abs</t>
+  </si>
+  <si>
+    <t>Jumps - Bridges</t>
+  </si>
+  <si>
+    <t>Jumps - Kicks</t>
+  </si>
+  <si>
+    <t>Jumps - Planks</t>
+  </si>
+  <si>
+    <t>Jumps - Supermans</t>
+  </si>
+  <si>
+    <t>Lunges - Pushups</t>
+  </si>
+  <si>
+    <t>Lunges - Squats</t>
+  </si>
+  <si>
+    <t>Lunges - Burpees</t>
+  </si>
+  <si>
+    <t>Lunges - Jumps</t>
+  </si>
+  <si>
+    <t>Lunges - Lunges</t>
+  </si>
+  <si>
+    <t>Lunges - Mountain Climbers</t>
+  </si>
+  <si>
+    <t>Lunges - Abs</t>
+  </si>
+  <si>
+    <t>Lunges - Bridges</t>
+  </si>
+  <si>
+    <t>Lunges - Kicks</t>
+  </si>
+  <si>
+    <t>Lunges - Planks</t>
+  </si>
+  <si>
+    <t>Lunges - Supermans</t>
+  </si>
+  <si>
+    <t>Mountain Climbers - Pushups</t>
+  </si>
+  <si>
+    <t>Mountain Climbers - Squats</t>
+  </si>
+  <si>
+    <t>Mountain Climbers - Burpees</t>
+  </si>
+  <si>
+    <t>Mountain Climbers - Jumps</t>
+  </si>
+  <si>
+    <t>Mountain Climbers - Lunges</t>
+  </si>
+  <si>
+    <t>Mountain Climbers - Mountain Climbers</t>
+  </si>
+  <si>
+    <t>Mountain Climbers - Abs</t>
+  </si>
+  <si>
+    <t>Mountain Climbers - Bridges</t>
+  </si>
+  <si>
+    <t>Mountain Climbers - Kicks</t>
+  </si>
+  <si>
+    <t>Mountain Climbers - Planks</t>
+  </si>
+  <si>
+    <t>Mountain Climbers - Supermans</t>
+  </si>
+  <si>
+    <t>Abs - Pushups</t>
+  </si>
+  <si>
+    <t>Abs - Squats</t>
+  </si>
+  <si>
+    <t>Abs - Burpees</t>
+  </si>
+  <si>
+    <t>Abs - Jumps</t>
+  </si>
+  <si>
+    <t>Abs - Lunges</t>
+  </si>
+  <si>
+    <t>Abs - Mountain Climbers</t>
+  </si>
+  <si>
+    <t>Abs - Abs</t>
+  </si>
+  <si>
+    <t>Abs - Bridges</t>
+  </si>
+  <si>
+    <t>Abs - Kicks</t>
+  </si>
+  <si>
+    <t>Abs - Planks</t>
+  </si>
+  <si>
+    <t>Abs - Supermans</t>
+  </si>
+  <si>
+    <t>Bridges - Pushups</t>
+  </si>
+  <si>
+    <t>Bridges - Squats</t>
+  </si>
+  <si>
+    <t>Bridges - Burpees</t>
+  </si>
+  <si>
+    <t>Bridges - Jumps</t>
+  </si>
+  <si>
+    <t>Bridges - Lunges</t>
+  </si>
+  <si>
+    <t>Bridges - Mountain Climbers</t>
+  </si>
+  <si>
+    <t>Bridges - Abs</t>
+  </si>
+  <si>
+    <t>Bridges - Bridges</t>
+  </si>
+  <si>
+    <t>Bridges - Kicks</t>
+  </si>
+  <si>
+    <t>Bridges - Planks</t>
+  </si>
+  <si>
+    <t>Bridges - Supermans</t>
+  </si>
+  <si>
+    <t>Kicks - Pushups</t>
+  </si>
+  <si>
+    <t>Kicks - Squats</t>
+  </si>
+  <si>
+    <t>Kicks - Burpees</t>
+  </si>
+  <si>
+    <t>Kicks - Jumps</t>
+  </si>
+  <si>
+    <t>Kicks - Lunges</t>
+  </si>
+  <si>
+    <t>Kicks - Mountain Climbers</t>
+  </si>
+  <si>
+    <t>Kicks - Abs</t>
+  </si>
+  <si>
+    <t>Kicks - Bridges</t>
+  </si>
+  <si>
+    <t>Kicks - Kicks</t>
+  </si>
+  <si>
+    <t>Kicks - Planks</t>
+  </si>
+  <si>
+    <t>Kicks - Supermans</t>
+  </si>
+  <si>
+    <t>Planks - Pushups</t>
+  </si>
+  <si>
+    <t>Planks - Squats</t>
+  </si>
+  <si>
+    <t>Planks - Burpees</t>
+  </si>
+  <si>
+    <t>Planks - Jumps</t>
+  </si>
+  <si>
+    <t>Planks - Lunges</t>
+  </si>
+  <si>
+    <t>Planks - Mountain Climbers</t>
+  </si>
+  <si>
+    <t>Planks - Abs</t>
+  </si>
+  <si>
+    <t>Planks - Bridges</t>
+  </si>
+  <si>
+    <t>Planks - Kicks</t>
+  </si>
+  <si>
+    <t>Planks - Planks</t>
+  </si>
+  <si>
+    <t>Planks - Supermans</t>
+  </si>
+  <si>
+    <t>Supermans - Pushups</t>
+  </si>
+  <si>
+    <t>Supermans - Squats</t>
+  </si>
+  <si>
+    <t>Supermans - Burpees</t>
+  </si>
+  <si>
+    <t>Supermans - Jumps</t>
+  </si>
+  <si>
+    <t>Supermans - Lunges</t>
+  </si>
+  <si>
+    <t>Supermans - Mountain Climbers</t>
+  </si>
+  <si>
+    <t>Supermans - Abs</t>
+  </si>
+  <si>
+    <t>Supermans - Bridges</t>
+  </si>
+  <si>
+    <t>Supermans - Kicks</t>
+  </si>
+  <si>
+    <t>Supermans - Planks</t>
+  </si>
+  <si>
+    <t>Supermans - Supermans</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Matchup</t>
+  </si>
+  <si>
+    <t>Slow Time</t>
+  </si>
+  <si>
+    <t>Regular Time</t>
+  </si>
+  <si>
+    <t>Fast Time</t>
+  </si>
+  <si>
+    <t>Transition Rep</t>
+  </si>
+  <si>
+    <t>ID:</t>
+  </si>
+  <si>
+    <t>Parent</t>
   </si>
 </sst>
 </file>
@@ -12480,12 +12871,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12515,9 +12905,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -12555,7 +12945,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -12661,7 +13051,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -12803,7 +13193,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12813,21 +13203,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C6FEDB-7242-034A-A2CD-5F1C567957CE}">
   <dimension ref="A1:R244"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" customWidth="1"/>
-    <col min="2" max="2" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="45.125" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="53.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="53.125" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="53.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="56.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="56.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
@@ -12853,7 +13243,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -12909,7 +13299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -12962,7 +13352,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -13015,7 +13405,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -13068,7 +13458,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -13121,7 +13511,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -13174,7 +13564,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -13227,7 +13617,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -13280,7 +13670,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -13333,7 +13723,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -13386,7 +13776,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -13439,7 +13829,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -13492,7 +13882,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -13545,7 +13935,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -13598,7 +13988,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -13651,7 +14041,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -13704,7 +14094,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>21</v>
       </c>
@@ -13757,7 +14147,7 @@
         <v>4103</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -13810,7 +14200,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -13863,7 +14253,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>24</v>
       </c>
@@ -13916,7 +14306,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -13969,7 +14359,7 @@
         <v>4119</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>26</v>
       </c>
@@ -14022,7 +14412,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>27</v>
       </c>
@@ -14075,7 +14465,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>28</v>
       </c>
@@ -14128,7 +14518,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>29</v>
       </c>
@@ -14181,7 +14571,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -14234,7 +14624,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>31</v>
       </c>
@@ -14287,7 +14677,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>32</v>
       </c>
@@ -14340,7 +14730,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>33</v>
       </c>
@@ -14393,7 +14783,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>34</v>
       </c>
@@ -14446,7 +14836,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>35</v>
       </c>
@@ -14499,7 +14889,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>36</v>
       </c>
@@ -14552,7 +14942,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>37</v>
       </c>
@@ -14605,7 +14995,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>38</v>
       </c>
@@ -14658,7 +15048,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>39</v>
       </c>
@@ -14711,7 +15101,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>40</v>
       </c>
@@ -14764,7 +15154,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>41</v>
       </c>
@@ -14817,7 +15207,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>42</v>
       </c>
@@ -14870,7 +15260,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>43</v>
       </c>
@@ -14923,7 +15313,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>44</v>
       </c>
@@ -14976,7 +15366,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>45</v>
       </c>
@@ -15029,7 +15419,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>46</v>
       </c>
@@ -15082,7 +15472,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>47</v>
       </c>
@@ -15135,7 +15525,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>48</v>
       </c>
@@ -15188,7 +15578,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>49</v>
       </c>
@@ -15241,7 +15631,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>50</v>
       </c>
@@ -15294,7 +15684,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>51</v>
       </c>
@@ -15347,7 +15737,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>52</v>
       </c>
@@ -15400,7 +15790,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>53</v>
       </c>
@@ -15453,7 +15843,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>54</v>
       </c>
@@ -15506,7 +15896,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>55</v>
       </c>
@@ -15559,7 +15949,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>56</v>
       </c>
@@ -15612,7 +16002,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>57</v>
       </c>
@@ -15665,7 +16055,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>58</v>
       </c>
@@ -15718,7 +16108,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>59</v>
       </c>
@@ -15771,7 +16161,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>60</v>
       </c>
@@ -15824,7 +16214,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>61</v>
       </c>
@@ -15877,7 +16267,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>62</v>
       </c>
@@ -15930,7 +16320,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>63</v>
       </c>
@@ -15983,7 +16373,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>64</v>
       </c>
@@ -16036,7 +16426,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>65</v>
       </c>
@@ -16089,7 +16479,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>66</v>
       </c>
@@ -16142,7 +16532,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>67</v>
       </c>
@@ -16195,7 +16585,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>68</v>
       </c>
@@ -16248,7 +16638,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>69</v>
       </c>
@@ -16301,7 +16691,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>70</v>
       </c>
@@ -16354,7 +16744,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>71</v>
       </c>
@@ -16407,7 +16797,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>72</v>
       </c>
@@ -16460,7 +16850,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>73</v>
       </c>
@@ -16513,7 +16903,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>74</v>
       </c>
@@ -16566,7 +16956,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>75</v>
       </c>
@@ -16619,7 +17009,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>76</v>
       </c>
@@ -16672,7 +17062,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>77</v>
       </c>
@@ -16725,7 +17115,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>78</v>
       </c>
@@ -16778,7 +17168,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>79</v>
       </c>
@@ -16831,7 +17221,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>80</v>
       </c>
@@ -16884,7 +17274,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>81</v>
       </c>
@@ -16937,7 +17327,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>82</v>
       </c>
@@ -16990,7 +17380,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>83</v>
       </c>
@@ -17043,7 +17433,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>84</v>
       </c>
@@ -17096,7 +17486,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>85</v>
       </c>
@@ -17149,7 +17539,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>86</v>
       </c>
@@ -17202,7 +17592,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>87</v>
       </c>
@@ -17255,7 +17645,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>88</v>
       </c>
@@ -17308,7 +17698,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>89</v>
       </c>
@@ -17361,7 +17751,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="87" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>90</v>
       </c>
@@ -17414,7 +17804,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="88" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>91</v>
       </c>
@@ -17467,7 +17857,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="89" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>92</v>
       </c>
@@ -17520,7 +17910,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="90" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>93</v>
       </c>
@@ -17573,7 +17963,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="91" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>94</v>
       </c>
@@ -17626,7 +18016,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="92" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>95</v>
       </c>
@@ -17679,7 +18069,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="93" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>96</v>
       </c>
@@ -17732,7 +18122,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="94" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>97</v>
       </c>
@@ -17785,7 +18175,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="95" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>98</v>
       </c>
@@ -17838,7 +18228,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="96" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>99</v>
       </c>
@@ -17891,7 +18281,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="97" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>100</v>
       </c>
@@ -17944,7 +18334,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="98" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>101</v>
       </c>
@@ -17997,7 +18387,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="99" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>102</v>
       </c>
@@ -18050,7 +18440,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>103</v>
       </c>
@@ -18103,7 +18493,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="101" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>104</v>
       </c>
@@ -18156,7 +18546,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>105</v>
       </c>
@@ -18209,7 +18599,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="103" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>106</v>
       </c>
@@ -18262,7 +18652,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="104" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>107</v>
       </c>
@@ -18315,7 +18705,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="105" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>108</v>
       </c>
@@ -18368,7 +18758,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="106" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>109</v>
       </c>
@@ -18421,7 +18811,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="107" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>110</v>
       </c>
@@ -18474,7 +18864,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="108" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>111</v>
       </c>
@@ -18527,7 +18917,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="109" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>112</v>
       </c>
@@ -18580,7 +18970,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="110" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>113</v>
       </c>
@@ -18633,7 +19023,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="111" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>114</v>
       </c>
@@ -18686,7 +19076,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="112" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>115</v>
       </c>
@@ -18739,7 +19129,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="113" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>116</v>
       </c>
@@ -18792,7 +19182,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="114" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>117</v>
       </c>
@@ -18845,7 +19235,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="115" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>118</v>
       </c>
@@ -18898,7 +19288,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="116" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>119</v>
       </c>
@@ -18951,7 +19341,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="117" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>120</v>
       </c>
@@ -19004,7 +19394,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="118" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>121</v>
       </c>
@@ -19057,7 +19447,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="119" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>122</v>
       </c>
@@ -19110,7 +19500,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="120" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>123</v>
       </c>
@@ -19163,7 +19553,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="121" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>124</v>
       </c>
@@ -19216,7 +19606,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="122" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>125</v>
       </c>
@@ -19269,7 +19659,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="123" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>126</v>
       </c>
@@ -19322,7 +19712,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="124" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>127</v>
       </c>
@@ -19375,7 +19765,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="125" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>128</v>
       </c>
@@ -19428,7 +19818,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="126" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>129</v>
       </c>
@@ -19481,7 +19871,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="127" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>130</v>
       </c>
@@ -19534,7 +19924,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="128" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>131</v>
       </c>
@@ -19587,7 +19977,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="129" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>132</v>
       </c>
@@ -19640,7 +20030,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="130" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>133</v>
       </c>
@@ -19693,7 +20083,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="131" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>134</v>
       </c>
@@ -19746,7 +20136,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="132" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>135</v>
       </c>
@@ -19799,7 +20189,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="133" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>136</v>
       </c>
@@ -19852,7 +20242,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="134" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>137</v>
       </c>
@@ -19905,7 +20295,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="135" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>138</v>
       </c>
@@ -19958,7 +20348,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="136" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>139</v>
       </c>
@@ -20011,7 +20401,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="137" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>140</v>
       </c>
@@ -20064,7 +20454,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="138" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>141</v>
       </c>
@@ -20117,7 +20507,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="139" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>142</v>
       </c>
@@ -20170,7 +20560,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="140" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>143</v>
       </c>
@@ -20223,7 +20613,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="141" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>144</v>
       </c>
@@ -20276,7 +20666,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="142" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>145</v>
       </c>
@@ -20329,7 +20719,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="143" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>146</v>
       </c>
@@ -20382,7 +20772,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="144" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>147</v>
       </c>
@@ -20435,7 +20825,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="145" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>148</v>
       </c>
@@ -20488,7 +20878,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="146" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>149</v>
       </c>
@@ -20541,7 +20931,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="147" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>150</v>
       </c>
@@ -20594,7 +20984,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="148" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>151</v>
       </c>
@@ -20647,7 +21037,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="149" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>152</v>
       </c>
@@ -20700,7 +21090,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="150" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>153</v>
       </c>
@@ -20753,7 +21143,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="151" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>154</v>
       </c>
@@ -20806,7 +21196,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="152" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>155</v>
       </c>
@@ -20859,7 +21249,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="153" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>156</v>
       </c>
@@ -20912,7 +21302,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="154" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>157</v>
       </c>
@@ -20965,7 +21355,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="155" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>158</v>
       </c>
@@ -21018,7 +21408,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="156" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>159</v>
       </c>
@@ -21071,7 +21461,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="157" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>160</v>
       </c>
@@ -21124,7 +21514,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="158" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>161</v>
       </c>
@@ -21177,7 +21567,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="159" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>162</v>
       </c>
@@ -21230,7 +21620,7 @@
         <v>2727</v>
       </c>
     </row>
-    <row r="160" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>163</v>
       </c>
@@ -21283,7 +21673,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="161" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>164</v>
       </c>
@@ -21336,7 +21726,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="162" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>165</v>
       </c>
@@ -21389,7 +21779,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="163" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>166</v>
       </c>
@@ -21442,7 +21832,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="164" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>167</v>
       </c>
@@ -21495,7 +21885,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="165" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>168</v>
       </c>
@@ -21548,7 +21938,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="166" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>169</v>
       </c>
@@ -21601,7 +21991,7 @@
         <v>2839</v>
       </c>
     </row>
-    <row r="167" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>170</v>
       </c>
@@ -21654,7 +22044,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="168" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>171</v>
       </c>
@@ -21707,7 +22097,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="169" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>172</v>
       </c>
@@ -21760,7 +22150,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="170" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>173</v>
       </c>
@@ -21813,7 +22203,7 @@
         <v>2903</v>
       </c>
     </row>
-    <row r="171" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>174</v>
       </c>
@@ -21866,7 +22256,7 @@
         <v>2919</v>
       </c>
     </row>
-    <row r="172" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>175</v>
       </c>
@@ -21919,7 +22309,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="173" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>176</v>
       </c>
@@ -21972,7 +22362,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="174" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>177</v>
       </c>
@@ -22025,7 +22415,7 @@
         <v>2967</v>
       </c>
     </row>
-    <row r="175" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>178</v>
       </c>
@@ -22078,7 +22468,7 @@
         <v>2983</v>
       </c>
     </row>
-    <row r="176" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>179</v>
       </c>
@@ -22131,7 +22521,7 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="177" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>180</v>
       </c>
@@ -22184,7 +22574,7 @@
         <v>3015</v>
       </c>
     </row>
-    <row r="178" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>181</v>
       </c>
@@ -22237,7 +22627,7 @@
         <v>3031</v>
       </c>
     </row>
-    <row r="179" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>182</v>
       </c>
@@ -22290,7 +22680,7 @@
         <v>3047</v>
       </c>
     </row>
-    <row r="180" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>183</v>
       </c>
@@ -22343,7 +22733,7 @@
         <v>3063</v>
       </c>
     </row>
-    <row r="181" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>184</v>
       </c>
@@ -22396,7 +22786,7 @@
         <v>3079</v>
       </c>
     </row>
-    <row r="182" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>185</v>
       </c>
@@ -22449,7 +22839,7 @@
         <v>3095</v>
       </c>
     </row>
-    <row r="183" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>186</v>
       </c>
@@ -22502,7 +22892,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="184" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>187</v>
       </c>
@@ -22555,7 +22945,7 @@
         <v>3127</v>
       </c>
     </row>
-    <row r="185" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>188</v>
       </c>
@@ -22608,7 +22998,7 @@
         <v>3143</v>
       </c>
     </row>
-    <row r="186" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>189</v>
       </c>
@@ -22661,7 +23051,7 @@
         <v>3159</v>
       </c>
     </row>
-    <row r="187" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>190</v>
       </c>
@@ -22714,7 +23104,7 @@
         <v>3175</v>
       </c>
     </row>
-    <row r="188" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>191</v>
       </c>
@@ -22767,7 +23157,7 @@
         <v>3191</v>
       </c>
     </row>
-    <row r="189" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>192</v>
       </c>
@@ -22820,7 +23210,7 @@
         <v>3207</v>
       </c>
     </row>
-    <row r="190" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>193</v>
       </c>
@@ -22873,7 +23263,7 @@
         <v>3223</v>
       </c>
     </row>
-    <row r="191" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>194</v>
       </c>
@@ -22926,7 +23316,7 @@
         <v>3239</v>
       </c>
     </row>
-    <row r="192" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>195</v>
       </c>
@@ -22979,7 +23369,7 @@
         <v>3255</v>
       </c>
     </row>
-    <row r="193" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>196</v>
       </c>
@@ -23032,7 +23422,7 @@
         <v>3271</v>
       </c>
     </row>
-    <row r="194" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>197</v>
       </c>
@@ -23085,7 +23475,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="195" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>198</v>
       </c>
@@ -23138,7 +23528,7 @@
         <v>3303</v>
       </c>
     </row>
-    <row r="196" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>199</v>
       </c>
@@ -23191,7 +23581,7 @@
         <v>3319</v>
       </c>
     </row>
-    <row r="197" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>200</v>
       </c>
@@ -23244,7 +23634,7 @@
         <v>3335</v>
       </c>
     </row>
-    <row r="198" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>201</v>
       </c>
@@ -23297,7 +23687,7 @@
         <v>3351</v>
       </c>
     </row>
-    <row r="199" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>202</v>
       </c>
@@ -23350,7 +23740,7 @@
         <v>3367</v>
       </c>
     </row>
-    <row r="200" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>203</v>
       </c>
@@ -23403,7 +23793,7 @@
         <v>3383</v>
       </c>
     </row>
-    <row r="201" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>204</v>
       </c>
@@ -23456,7 +23846,7 @@
         <v>3399</v>
       </c>
     </row>
-    <row r="202" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>205</v>
       </c>
@@ -23509,7 +23899,7 @@
         <v>3415</v>
       </c>
     </row>
-    <row r="203" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>206</v>
       </c>
@@ -23562,7 +23952,7 @@
         <v>3431</v>
       </c>
     </row>
-    <row r="204" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>207</v>
       </c>
@@ -23615,7 +24005,7 @@
         <v>3447</v>
       </c>
     </row>
-    <row r="205" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>208</v>
       </c>
@@ -23668,7 +24058,7 @@
         <v>3463</v>
       </c>
     </row>
-    <row r="206" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>209</v>
       </c>
@@ -23721,7 +24111,7 @@
         <v>3479</v>
       </c>
     </row>
-    <row r="207" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>210</v>
       </c>
@@ -23774,7 +24164,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="208" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>211</v>
       </c>
@@ -23827,7 +24217,7 @@
         <v>3511</v>
       </c>
     </row>
-    <row r="209" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>212</v>
       </c>
@@ -23880,7 +24270,7 @@
         <v>3527</v>
       </c>
     </row>
-    <row r="210" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>213</v>
       </c>
@@ -23933,7 +24323,7 @@
         <v>3543</v>
       </c>
     </row>
-    <row r="211" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>214</v>
       </c>
@@ -23986,7 +24376,7 @@
         <v>3559</v>
       </c>
     </row>
-    <row r="212" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>215</v>
       </c>
@@ -24039,7 +24429,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="213" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>216</v>
       </c>
@@ -24092,7 +24482,7 @@
         <v>3591</v>
       </c>
     </row>
-    <row r="214" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>217</v>
       </c>
@@ -24145,7 +24535,7 @@
         <v>3607</v>
       </c>
     </row>
-    <row r="215" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>218</v>
       </c>
@@ -24198,7 +24588,7 @@
         <v>3623</v>
       </c>
     </row>
-    <row r="216" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>219</v>
       </c>
@@ -24251,7 +24641,7 @@
         <v>3639</v>
       </c>
     </row>
-    <row r="217" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>220</v>
       </c>
@@ -24304,7 +24694,7 @@
         <v>3655</v>
       </c>
     </row>
-    <row r="218" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>221</v>
       </c>
@@ -24357,7 +24747,7 @@
         <v>3671</v>
       </c>
     </row>
-    <row r="219" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>222</v>
       </c>
@@ -24410,7 +24800,7 @@
         <v>3687</v>
       </c>
     </row>
-    <row r="220" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>223</v>
       </c>
@@ -24463,7 +24853,7 @@
         <v>3703</v>
       </c>
     </row>
-    <row r="221" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>224</v>
       </c>
@@ -24516,7 +24906,7 @@
         <v>3719</v>
       </c>
     </row>
-    <row r="222" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>225</v>
       </c>
@@ -24569,7 +24959,7 @@
         <v>3735</v>
       </c>
     </row>
-    <row r="223" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>226</v>
       </c>
@@ -24622,7 +25012,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="224" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>227</v>
       </c>
@@ -24675,7 +25065,7 @@
         <v>3767</v>
       </c>
     </row>
-    <row r="225" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>228</v>
       </c>
@@ -24728,7 +25118,7 @@
         <v>3783</v>
       </c>
     </row>
-    <row r="226" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>229</v>
       </c>
@@ -24781,7 +25171,7 @@
         <v>3799</v>
       </c>
     </row>
-    <row r="227" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>230</v>
       </c>
@@ -24834,7 +25224,7 @@
         <v>3815</v>
       </c>
     </row>
-    <row r="228" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>231</v>
       </c>
@@ -24887,7 +25277,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="229" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>232</v>
       </c>
@@ -24940,7 +25330,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="230" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>233</v>
       </c>
@@ -24993,7 +25383,7 @@
         <v>3863</v>
       </c>
     </row>
-    <row r="231" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>234</v>
       </c>
@@ -25046,7 +25436,7 @@
         <v>3879</v>
       </c>
     </row>
-    <row r="232" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
         <v>235</v>
       </c>
@@ -25099,7 +25489,7 @@
         <v>3895</v>
       </c>
     </row>
-    <row r="233" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>236</v>
       </c>
@@ -25152,7 +25542,7 @@
         <v>3911</v>
       </c>
     </row>
-    <row r="234" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>237</v>
       </c>
@@ -25205,7 +25595,7 @@
         <v>3927</v>
       </c>
     </row>
-    <row r="235" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>238</v>
       </c>
@@ -25258,7 +25648,7 @@
         <v>3943</v>
       </c>
     </row>
-    <row r="236" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
         <v>239</v>
       </c>
@@ -25311,7 +25701,7 @@
         <v>3959</v>
       </c>
     </row>
-    <row r="237" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>240</v>
       </c>
@@ -25364,7 +25754,7 @@
         <v>3975</v>
       </c>
     </row>
-    <row r="238" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>241</v>
       </c>
@@ -25417,7 +25807,7 @@
         <v>3991</v>
       </c>
     </row>
-    <row r="239" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>242</v>
       </c>
@@ -25470,7 +25860,7 @@
         <v>4007</v>
       </c>
     </row>
-    <row r="240" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>243</v>
       </c>
@@ -25523,7 +25913,7 @@
         <v>4023</v>
       </c>
     </row>
-    <row r="241" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>244</v>
       </c>
@@ -25576,7 +25966,7 @@
         <v>4039</v>
       </c>
     </row>
-    <row r="242" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>245</v>
       </c>
@@ -25629,7 +26019,7 @@
         <v>4055</v>
       </c>
     </row>
-    <row r="243" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>246</v>
       </c>
@@ -25682,7 +26072,7 @@
         <v>4071</v>
       </c>
     </row>
-    <row r="244" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>247</v>
       </c>
@@ -25751,164 +26141,164 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B5179E-762C-124B-A240-3A035CE5971A}">
-  <dimension ref="A1:CZ2"/>
+  <dimension ref="A1:DA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="104" width="15" customWidth="1"/>
+    <col min="4" max="5" width="18" customWidth="1"/>
+    <col min="6" max="105" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="E1" s="1" t="s">
+    <row r="1" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
         <v>4127</v>
       </c>
-      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
         <v>4127</v>
       </c>
-      <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1" t="s">
         <v>4127</v>
       </c>
-      <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="1"/>
+      <c r="U1" s="1" t="s">
         <v>4127</v>
       </c>
-      <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1" t="s">
         <v>4127</v>
       </c>
-      <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1" t="s">
         <v>4127</v>
       </c>
-      <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1" t="s">
         <v>4127</v>
       </c>
-      <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1" t="s">
         <v>4127</v>
       </c>
-      <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
       <c r="AR1" s="1"/>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1" t="s">
         <v>4127</v>
       </c>
-      <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
       <c r="AW1" s="1"/>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1" t="s">
         <v>4127</v>
       </c>
-      <c r="AY1" s="1"/>
       <c r="AZ1" s="1"/>
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1" t="s">
         <v>4127</v>
       </c>
-      <c r="BD1" s="1"/>
       <c r="BE1" s="1"/>
       <c r="BF1" s="1"/>
       <c r="BG1" s="1"/>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1" t="s">
         <v>4127</v>
       </c>
-      <c r="BI1" s="1"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
-      <c r="BM1" s="1" t="s">
+      <c r="BM1" s="1"/>
+      <c r="BN1" s="1" t="s">
         <v>4127</v>
       </c>
-      <c r="BN1" s="1"/>
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
       <c r="BQ1" s="1"/>
-      <c r="BR1" s="1" t="s">
+      <c r="BR1" s="1"/>
+      <c r="BS1" s="1" t="s">
         <v>4127</v>
       </c>
-      <c r="BS1" s="1"/>
       <c r="BT1" s="1"/>
       <c r="BU1" s="1"/>
       <c r="BV1" s="1"/>
-      <c r="BW1" s="1" t="s">
+      <c r="BW1" s="1"/>
+      <c r="BX1" s="1" t="s">
         <v>4127</v>
       </c>
-      <c r="BX1" s="1"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
       <c r="CA1" s="1"/>
-      <c r="CB1" s="1" t="s">
+      <c r="CB1" s="1"/>
+      <c r="CC1" s="1" t="s">
         <v>4127</v>
       </c>
-      <c r="CC1" s="1"/>
       <c r="CD1" s="1"/>
       <c r="CE1" s="1"/>
       <c r="CF1" s="1"/>
-      <c r="CG1" s="1" t="s">
+      <c r="CG1" s="1"/>
+      <c r="CH1" s="1" t="s">
         <v>4127</v>
       </c>
-      <c r="CH1" s="1"/>
       <c r="CI1" s="1"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
-      <c r="CL1" s="1" t="s">
+      <c r="CL1" s="1"/>
+      <c r="CM1" s="1" t="s">
         <v>4127</v>
       </c>
-      <c r="CM1" s="1"/>
       <c r="CN1" s="1"/>
       <c r="CO1" s="1"/>
       <c r="CP1" s="1"/>
-      <c r="CQ1" s="1" t="s">
+      <c r="CQ1" s="1"/>
+      <c r="CR1" s="1" t="s">
         <v>4127</v>
       </c>
-      <c r="CR1" s="1"/>
       <c r="CS1" s="1"/>
       <c r="CT1" s="1"/>
       <c r="CU1" s="1"/>
-      <c r="CV1" s="1" t="s">
+      <c r="CV1" s="1"/>
+      <c r="CW1" s="1" t="s">
         <v>4127</v>
       </c>
-      <c r="CW1" s="1"/>
       <c r="CX1" s="1"/>
       <c r="CY1" s="1"/>
       <c r="CZ1" s="1"/>
-    </row>
-    <row r="2" spans="1:104" x14ac:dyDescent="0.2">
+      <c r="DA1" s="1"/>
+    </row>
+    <row r="2" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -25922,328 +26312,331 @@
         <v>4121</v>
       </c>
       <c r="E2" t="s">
+        <v>4264</v>
+      </c>
+      <c r="F2" t="s">
         <v>4122</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>4123</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>4124</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>4125</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>4126</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>4122</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>4123</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>4124</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>4125</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>4126</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>4122</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>4123</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>4124</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>4125</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>4126</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>4122</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>4123</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>4124</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>4125</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>4126</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>4122</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>4123</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>4124</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>4125</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>4126</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>4122</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>4123</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>4124</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>4125</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>4126</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>4122</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>4123</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>4124</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>4125</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>4126</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>4122</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>4123</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>4124</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>4125</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>4126</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>4122</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>4123</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>4124</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
         <v>4125</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>4126</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>4122</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
         <v>4123</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BA2" t="s">
         <v>4124</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
         <v>4125</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>4126</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>4122</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>4123</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>4124</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
         <v>4125</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
         <v>4126</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BI2" t="s">
         <v>4122</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BJ2" t="s">
         <v>4123</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>4124</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>4125</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>4126</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>4122</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
         <v>4123</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" t="s">
         <v>4124</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BQ2" t="s">
         <v>4125</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
         <v>4126</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BS2" t="s">
         <v>4122</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BT2" t="s">
         <v>4123</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BU2" t="s">
         <v>4124</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BV2" t="s">
         <v>4125</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BW2" t="s">
         <v>4126</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BX2" t="s">
         <v>4122</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="BY2" t="s">
         <v>4123</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="BZ2" t="s">
         <v>4124</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CA2" t="s">
         <v>4125</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CB2" t="s">
         <v>4126</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CC2" t="s">
         <v>4122</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CD2" t="s">
         <v>4123</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CE2" t="s">
         <v>4124</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CF2" t="s">
         <v>4125</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CG2" t="s">
         <v>4126</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CH2" t="s">
         <v>4122</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CI2" t="s">
         <v>4123</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CJ2" t="s">
         <v>4124</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CK2" t="s">
         <v>4125</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CL2" t="s">
         <v>4126</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CM2" t="s">
         <v>4122</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CN2" t="s">
         <v>4123</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CO2" t="s">
         <v>4124</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="CP2" t="s">
         <v>4125</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CQ2" t="s">
         <v>4126</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="CR2" t="s">
         <v>4122</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CS2" t="s">
         <v>4123</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="CT2" t="s">
         <v>4124</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="CU2" t="s">
         <v>4125</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CV2" t="s">
         <v>4126</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="CW2" t="s">
         <v>4122</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="CX2" t="s">
         <v>4123</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="CY2" t="s">
         <v>4124</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="CZ2" t="s">
         <v>4125</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="DA2" t="s">
         <v>4126</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="CQ1:CU1"/>
-    <mergeCell ref="CV1:CZ1"/>
-    <mergeCell ref="BM1:BQ1"/>
-    <mergeCell ref="BR1:BV1"/>
-    <mergeCell ref="BW1:CA1"/>
-    <mergeCell ref="CB1:CF1"/>
-    <mergeCell ref="CG1:CK1"/>
-    <mergeCell ref="CL1:CP1"/>
-    <mergeCell ref="AI1:AM1"/>
-    <mergeCell ref="AN1:AR1"/>
-    <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="AX1:BB1"/>
-    <mergeCell ref="BC1:BG1"/>
-    <mergeCell ref="BH1:BL1"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="Y1:AC1"/>
-    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="BI1:BM1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="Z1:AD1"/>
+    <mergeCell ref="AE1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AS1"/>
+    <mergeCell ref="AT1:AX1"/>
+    <mergeCell ref="AY1:BC1"/>
+    <mergeCell ref="BD1:BH1"/>
+    <mergeCell ref="CR1:CV1"/>
+    <mergeCell ref="CW1:DA1"/>
+    <mergeCell ref="BN1:BR1"/>
+    <mergeCell ref="BS1:BW1"/>
+    <mergeCell ref="BX1:CB1"/>
+    <mergeCell ref="CC1:CG1"/>
+    <mergeCell ref="CH1:CL1"/>
+    <mergeCell ref="CM1:CQ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26257,17 +26650,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="26.375" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="5" width="15" customWidth="1"/>
-    <col min="6" max="103" width="15" style="2" customWidth="1"/>
-    <col min="104" max="16384" width="10.83203125" style="2"/>
+    <col min="4" max="103" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>4129</v>
       </c>
@@ -26369,7 +26760,7 @@
       </c>
       <c r="BA1" s="1"/>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -26532,6 +26923,20 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="AT1:AU1"/>
     <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="AX1:AY1"/>
@@ -26542,21 +26947,7 @@
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26570,14 +26961,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="29.875" customWidth="1"/>
     <col min="3" max="4" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -26600,13 +26991,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DE52F0-FA25-3147-9398-011447F75847}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -26626,4 +27017,1468 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749ECF17-842A-428C-A0F6-8114E4220C11}">
+  <dimension ref="A1:W123"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="7.25" customWidth="1"/>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="19" width="24.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4263</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4262</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>4262</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>4262</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>4262</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1" t="s">
+        <v>4262</v>
+      </c>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4256</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4257</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4258</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4122</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4260</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4261</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4122</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4259</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4260</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4261</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4122</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4259</v>
+      </c>
+      <c r="N2" t="s">
+        <v>4260</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4261</v>
+      </c>
+      <c r="P2" t="s">
+        <v>4122</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>4259</v>
+      </c>
+      <c r="R2" t="s">
+        <v>4260</v>
+      </c>
+      <c r="S2" t="s">
+        <v>4261</v>
+      </c>
+      <c r="T2" t="s">
+        <v>4122</v>
+      </c>
+      <c r="U2" t="s">
+        <v>4259</v>
+      </c>
+      <c r="V2" t="s">
+        <v>4260</v>
+      </c>
+      <c r="W2" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4183</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4184</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4185</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>4</v>
+      </c>
+      <c r="B55">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4189</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>5</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>5</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4193</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4194</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>5</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>5</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>5</v>
+      </c>
+      <c r="B65">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4197</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>5</v>
+      </c>
+      <c r="B66">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>5</v>
+      </c>
+      <c r="B67">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>6</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>6</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>6</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>6</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4204</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>6</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>6</v>
+      </c>
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>6</v>
+      </c>
+      <c r="B75">
+        <v>6</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>6</v>
+      </c>
+      <c r="B76">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4208</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>6</v>
+      </c>
+      <c r="B77">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4209</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>6</v>
+      </c>
+      <c r="B78">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>6</v>
+      </c>
+      <c r="B79">
+        <v>10</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4211</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>7</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>7</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4213</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>7</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4214</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>7</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4215</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>7</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>7</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>7</v>
+      </c>
+      <c r="B86">
+        <v>6</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>7</v>
+      </c>
+      <c r="B87">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>7</v>
+      </c>
+      <c r="B88">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>7</v>
+      </c>
+      <c r="B89">
+        <v>9</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>7</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4222</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>8</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4223</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>8</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>8</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>8</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4226</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>8</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>8</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>8</v>
+      </c>
+      <c r="B97">
+        <v>6</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>8</v>
+      </c>
+      <c r="B98">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>8</v>
+      </c>
+      <c r="B99">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>8</v>
+      </c>
+      <c r="B100">
+        <v>9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>8</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>9</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>9</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>9</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>9</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>9</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>9</v>
+      </c>
+      <c r="B107">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>9</v>
+      </c>
+      <c r="B108">
+        <v>6</v>
+      </c>
+      <c r="C108" t="s">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>9</v>
+      </c>
+      <c r="B109">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>9</v>
+      </c>
+      <c r="B110">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>9</v>
+      </c>
+      <c r="B111">
+        <v>9</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>9</v>
+      </c>
+      <c r="B112">
+        <v>10</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>10</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>10</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4246</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>10</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>10</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>10</v>
+      </c>
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>10</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>10</v>
+      </c>
+      <c r="B119">
+        <v>6</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>10</v>
+      </c>
+      <c r="B120">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
+        <v>4252</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>10</v>
+      </c>
+      <c r="B121">
+        <v>8</v>
+      </c>
+      <c r="C121" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>10</v>
+      </c>
+      <c r="B122">
+        <v>9</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>10</v>
+      </c>
+      <c r="B123">
+        <v>10</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4255</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/posesaxl.xlsx
+++ b/posesaxl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demet\go\i9posesa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B30947B-4593-44C0-83C2-038DFC0D5020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDE29F2-1E5C-43D6-92D6-6A5F6AE76098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{6E1BAD38-7403-304E-BB03-5337C44A7D19}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{6E1BAD38-7403-304E-BB03-5337C44A7D19}"/>
   </bookViews>
   <sheets>
     <sheet name="ImageSet" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4281" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4330" uniqueCount="966">
   <si>
     <t>ID</t>
   </si>
@@ -2804,6 +2804,144 @@
   </si>
   <si>
     <t>Keeping both of your feet planted and your left knee close to the ground, shift your body forward, using your hips. Continue as far as you can, stretching the front of your left hip, then hold briefly.`Relax and return to the initial position. Switch legs and repeat  with your right side.</t>
+  </si>
+  <si>
+    <t>Keeping your knees unbent, bring your hands down as close to the ground as you can, hinging at your hips and lower back.`Hold this stretch then raise back up to standing straight.</t>
+  </si>
+  <si>
+    <t>Keeping your knees unbent, bring your hands down as close to the ground toes as you can, hinging at your hips and lower back.`Hold this stretch then raise back up to standing straight.</t>
+  </si>
+  <si>
+    <t>Keeping your knees unbent, bring your hands down as close to your left foot as you can, hinging at your hips and lower back.`Hold this stretch, then relax and repeat with the right side.</t>
+  </si>
+  <si>
+    <t>Bring your left foot to the right side of your right knee, bending your left knee. Using your left upper leg for support, twist your back so that you can plant both hands on the ground of the left side of your body, or get as close as you can.`Hold this stretch, then relax and repeat with the right side.</t>
+  </si>
+  <si>
+    <t>Grab your left foot with your left hand and right foot with right hand, keeping your legs in the air. Attempt to extend your legs by straightening your knees, while still holding on to your feet with your hands.`Hold this stretch, then relax and return to the initial position.</t>
+  </si>
+  <si>
+    <t>Grab your left foot with your left hand and right foot with right hand, keeping your legs in the air. Attempt to extend your legs by straightening your knees, while still holding on to your feet with your hands. Move your feet out away from each other by widening your hips.`Hold this stretch, then relax and return to the initial position.</t>
+  </si>
+  <si>
+    <t>Bring your hips forward while still standing up straight. Move them in a circular motion, around your body, returning to center.</t>
+  </si>
+  <si>
+    <t>Bring both of your arms straight out in front of your torso. Swing your arms out to the side and behind your back as far as they go, keeping them slightly below shoulder level.`Repeat.</t>
+  </si>
+  <si>
+    <t>Let your arms hang directly below your shoulders. Swing your left arm out to the left, then up as high as it will go. Relax your left arm and let it swing down naturally, while you swing your right arm out to the right, then up as high as it will go.`Repeat.</t>
+  </si>
+  <si>
+    <t>Stand on your right leg, letting your left leg hang. Support yourself if needed. Swing your left leg directly in front of you and as high up as it will go. Swing it back down, then directly behind you as far as it will go.`Repeat for allotted time, then do the same for your right leg.</t>
+  </si>
+  <si>
+    <t>Stand on your right leg, letting your left leg hang. Support yourself if needed. Swing your left leg to the left of you and as high up as it will go. Swing it back down, then directly to your right as far as it will go.`Repeat for allotted time, then do the same for your right leg.</t>
+  </si>
+  <si>
+    <t>Bend your neck forward and tilt your head as far forward as you can. Move your neck around in a circular motion, returning to center.</t>
+  </si>
+  <si>
+    <t>Bring your right foot forward, bending at the right knee. Move your left foot back, keeping your left leg straight. Lean forward and bring your left foot as close to the ground as you can, stretching your calf.`Relax and return to original position, then repeat this with your right leg.</t>
+  </si>
+  <si>
+    <t>Bring your left foot up to thigh level by bending your knees and twisting at the hip. Grab your left foot and left shin with your hands. Keeping your shin parallel to the ground, pull your shin as high off the ground as you can, ideally to hip-level.`Hold briefly, then relax and repeat with the right side.</t>
+  </si>
+  <si>
+    <t>Bending your knee, bring your left foot behind you to buttock-level. Grabyour left ankle with your left hand and use your right hand for support on a stationary object if needed. Pull your left foot as high as you can while keeping your keep in the same place, stretching your quad.`Hold briefly, then relax and repeat with the right leg.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bring your arms up to chest level with your elbows bent. Carefully twist your lower back to rotate your arms to the left, while keeping them in the same position. Go as far left as you are comfortable.`Return to the original position and repeat with the right side. </t>
+  </si>
+  <si>
+    <t>Keeping your hands and feet on the ground, arch your full back and raise your hips as high as possible, holding this position briefly.`Relax and lower them back down to the ground, then repeat.</t>
+  </si>
+  <si>
+    <t>Step your left leg slightly forward. Keeping your knees unbent, bring your hands down as close to your left foot as you can, hinging at your hips and lower back.`Hold position, then relax and repeat with the right side.</t>
+  </si>
+  <si>
+    <t>Step your left leg slightly forward. Keeping your knees unbent, bring your hands down as close to your left foot as you can, hinging at your hips and lower back. While reaching, flex your left ankle so your left foot is curled towards your shin.`Hold position, then relax and repeat with the right side.</t>
+  </si>
+  <si>
+    <t>Keeping your hands and knees on the ground, lower your hips so they are resting on your feet. Round your lower back to further the stretch, keeping your hands in the same place.`Hold briefly, then relax and return to the crawl position.</t>
+  </si>
+  <si>
+    <t>Keeping your hands and knees on the ground, lower your hips so they are resting on your feet. Round your lower back to further the stretch, keeping your hands in the same place.`Hold briefly, then relax and return to the crawl position. Reoeat.</t>
+  </si>
+  <si>
+    <t>Keeping your knees unbent, bring your hands down as close to your left foot as you can, hinging at your hips and lower back. Hold briefly, then move to reach towards the ground in between your feet. Hold briefly again, then move to reach towards your right foot.`Hold briefly, then relax and repeat.</t>
+  </si>
+  <si>
+    <t>Rotate your left leg so that your left foot is elevated and your left shin is parallel to the ground. Stabilize your left ankle on your right knee and use your arms to move your left shin closer to your chest, stretching your left hip.`Hold briefly, then relax and repeat this with your right leg.</t>
+  </si>
+  <si>
+    <t>Arch your back as far as you are comfortable, and hold briefly. Relax, then round your back as far as you are comfortable, and hold briefly.`Relax and repeat.</t>
+  </si>
+  <si>
+    <t>Arch your back as far as you are comfortable, and hold briefly.`Relax and repeat.</t>
+  </si>
+  <si>
+    <t>Bring your left foot to the right side of your right knee, bending your left knee. Using your left upper leg for support, twist your back so that you can plant both hands on the ground of the left side of your body, or get as close as you can.`Hold briefly, then relax and repeat with the right side.</t>
+  </si>
+  <si>
+    <t>Grab your left foot with your left hand and right foot with right hand, keeping your legs in the air. Move your feet out away from each other as far as you are comfortbale by widening your hips. `Hold this briefly, then relax and repeat.</t>
+  </si>
+  <si>
+    <t>Grab your left foot with your left hand and right foot with right hand, keeping your legs in the air. Extend your legs to be as straight as possible while still holding on to your feet with your hands.`Hold this briefly, then relax and repeat.</t>
+  </si>
+  <si>
+    <t>Squat all the way down as far as you are able to, so that you can maintain the position comfortably. Squat up slighly, then use gravity to drop back down to your original position, bouncing your hips.`Repeat for allotted time.</t>
+  </si>
+  <si>
+    <t>Bring your left knee straight up as high as you can. Grab your left shin with both hands, then use your arms to pull your left knee as high as you are comfortable pulling it. `Releax and repeat with the right leg.</t>
+  </si>
+  <si>
+    <t>Bring your left knee straight up as high as you can. Lower it immediately, and while lowering it raise your right knee up, and repeat.`This should be similar to a 'running in place' motion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raise your arms to be straight out to the side at shoulder-level. Hinging at the hips, squat down and twist your torso to the left while keeping your arms in the same position. Keep going until your left hand touches the ground, or as far down as you are comfortable.`Return to original position then repeat on right side. </t>
+  </si>
+  <si>
+    <t>Raise your legs to be about 6 inches above the ground. Raise your left foot to be slightly higher and simultaneously lower your right foot to be slightly lower, while keeping your legs straight.`Lower your left foot and raise your right foot, then repeat this motion for the allotted time.</t>
+  </si>
+  <si>
+    <t>Flex your lower back, upper back, and buttocks so that your feet, knees, and arms come off the ground slightly.`Hold this position briefly, then return to the original position and repeat.</t>
+  </si>
+  <si>
+    <t>Flex your abs to raise your head and upper back around 6 inches off the ground. Lean left and reach your left arm to your left foot, while keeping your back the same height above the ground. Go back to center and lean right to reach your right arm to your right foot, again keeping your back the same height above the ground.`Repeat for allotted time.</t>
+  </si>
+  <si>
+    <t>Raise your hips slightly while keeping your arms and feet in the same place. Twist your hips to the left, so they are slightly above the ground on your left side.`Return your hips back up, then do the same on the right side and repeat for the allotted time.</t>
+  </si>
+  <si>
+    <t>Raise your left foot slightly off the ground. Repeatedly switch raising your left footup  with your right foot down and your right foot up with your left foot down as fast as you are able to do.`Continue for the allotted period of time.</t>
+  </si>
+  <si>
+    <t>Bending at the left knee, bring your left foot behind you to buttock level while keeping your left knee in the same place. Lower it immediately, and while lowering it raise your right foot up, and repeat.`This should be similar to a 'running in place' motion.</t>
+  </si>
+  <si>
+    <t>Bring your left knee straight up as high as you can. Keeping your left knee in the same place, kick your left foot straight out in front of you, then lower it down.`Do the same for the right leg and repeat for the allotted time.</t>
+  </si>
+  <si>
+    <t>Bring your left knee straight up as high as you can. Keeping your left knee in the same place, kick your left foot out to your left side as far as you can, then lower it down.`Do the same for the right leg and repeat for the allotted time.</t>
+  </si>
+  <si>
+    <t>Flex your abs to raise your head and upper back off the ground as high as you can. If you are able, touch your elbows to your knees.`Hold briefly, then return to original position and repeat for allotted time.</t>
+  </si>
+  <si>
+    <t>Extend your feet out in front of you and lower your back slightly. Your knees should still be bent, but less so than before. Flexing your abs, pull your feet in and back up back to the original position.`Repeat for allotted time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keeping your knees and back in the same position, twist your body to the left and bring your hands to the ground on your left side. Pause, then return to the original position and do the same on the right side.`Repeat for allotted time. </t>
+  </si>
+  <si>
+    <t>Flex your abs to raise your head and upper back off the ground as high as you can. On the tap up, twist your torso to the left, so your right elbow touches your knees (or get as close as you can).Hold briefly, then return to original position and do the same on the right side.`Repeat for allotted time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bring your left leg out directly in front of you and plant your left foot on the ground. Bend both of your knees so that your right knee goes down to the ground, or is as low as you can do. Straighten your knees so that your legs are straight again.`Return back to the original position and do the same for the right side, repeating for the allotted time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bring your left leg out directly in front of you and plant your left foot on the ground. Bend both of your knees so that your right knee goes down to the ground, or is as low as you can do. From this position, jump up and switch your leg position so that your right leg is in front and your left leg is in back. Once back down, bend both of your knees so that your left knee goes down to the ground, or is as low as you can do.`Repeat for the allotted time. </t>
   </si>
 </sst>
 </file>
@@ -2826,18 +2964,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2852,10 +2984,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3187,7 +3318,7 @@
   <dimension ref="A1:Z242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -28327,10 +28458,10 @@
   <dimension ref="A1:DB150"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B66" sqref="B66"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -28447,146 +28578,146 @@
       <c r="F1" t="s">
         <v>380</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3" t="s">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3" t="s">
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3" t="s">
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3" t="s">
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3" t="s">
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3" t="s">
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3" t="s">
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3"/>
-      <c r="AY1" s="3"/>
-      <c r="AZ1" s="3" t="s">
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="BA1" s="3"/>
-      <c r="BB1" s="3"/>
-      <c r="BC1" s="3"/>
-      <c r="BD1" s="3"/>
-      <c r="BE1" s="3" t="s">
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="BF1" s="3"/>
-      <c r="BG1" s="3"/>
-      <c r="BH1" s="3"/>
-      <c r="BI1" s="3"/>
-      <c r="BJ1" s="3" t="s">
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="BK1" s="3"/>
-      <c r="BL1" s="3"/>
-      <c r="BM1" s="3"/>
-      <c r="BN1" s="3"/>
-      <c r="BO1" s="3" t="s">
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BM1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BO1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="BP1" s="3"/>
-      <c r="BQ1" s="3"/>
-      <c r="BR1" s="3"/>
-      <c r="BS1" s="3"/>
-      <c r="BT1" s="3" t="s">
+      <c r="BP1" s="2"/>
+      <c r="BQ1" s="2"/>
+      <c r="BR1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BT1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="BU1" s="3"/>
-      <c r="BV1" s="3"/>
-      <c r="BW1" s="3"/>
-      <c r="BX1" s="3"/>
-      <c r="BY1" s="3" t="s">
+      <c r="BU1" s="2"/>
+      <c r="BV1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BY1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="BZ1" s="3"/>
-      <c r="CA1" s="3"/>
-      <c r="CB1" s="3"/>
-      <c r="CC1" s="3"/>
-      <c r="CD1" s="3" t="s">
+      <c r="BZ1" s="2"/>
+      <c r="CA1" s="2"/>
+      <c r="CB1" s="2"/>
+      <c r="CC1" s="2"/>
+      <c r="CD1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="CE1" s="3"/>
-      <c r="CF1" s="3"/>
-      <c r="CG1" s="3"/>
-      <c r="CH1" s="3"/>
-      <c r="CI1" s="3" t="s">
+      <c r="CE1" s="2"/>
+      <c r="CF1" s="2"/>
+      <c r="CG1" s="2"/>
+      <c r="CH1" s="2"/>
+      <c r="CI1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="CJ1" s="3"/>
-      <c r="CK1" s="3"/>
-      <c r="CL1" s="3"/>
-      <c r="CM1" s="3"/>
-      <c r="CN1" s="3" t="s">
+      <c r="CJ1" s="2"/>
+      <c r="CK1" s="2"/>
+      <c r="CL1" s="2"/>
+      <c r="CM1" s="2"/>
+      <c r="CN1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="CO1" s="3"/>
-      <c r="CP1" s="3"/>
-      <c r="CQ1" s="3"/>
-      <c r="CR1" s="3"/>
-      <c r="CS1" s="3" t="s">
+      <c r="CO1" s="2"/>
+      <c r="CP1" s="2"/>
+      <c r="CQ1" s="2"/>
+      <c r="CR1" s="2"/>
+      <c r="CS1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="CT1" s="3"/>
-      <c r="CU1" s="3"/>
-      <c r="CV1" s="3"/>
-      <c r="CW1" s="3"/>
-      <c r="CX1" s="3" t="s">
+      <c r="CT1" s="2"/>
+      <c r="CU1" s="2"/>
+      <c r="CV1" s="2"/>
+      <c r="CW1" s="2"/>
+      <c r="CX1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="CY1" s="3"/>
-      <c r="CZ1" s="3"/>
-      <c r="DA1" s="3"/>
-      <c r="DB1" s="3"/>
+      <c r="CY1" s="2"/>
+      <c r="CZ1" s="2"/>
+      <c r="DA1" s="2"/>
+      <c r="DB1" s="2"/>
     </row>
     <row r="2" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -29978,7 +30109,7 @@
         <v>435</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="D16">
         <v>0.25</v>
@@ -44086,106 +44217,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3" t="s">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3" t="s">
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3" t="s">
+      <c r="R1" s="2"/>
+      <c r="S1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3" t="s">
+      <c r="T1" s="2"/>
+      <c r="U1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3" t="s">
+      <c r="V1" s="2"/>
+      <c r="W1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3" t="s">
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3" t="s">
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3" t="s">
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3" t="s">
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3" t="s">
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3" t="s">
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3" t="s">
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3" t="s">
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3" t="s">
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3" t="s">
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3" t="s">
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3" t="s">
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="3" t="s">
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="AX1" s="3"/>
-      <c r="AY1" s="3" t="s">
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="AZ1" s="3"/>
-      <c r="BA1" s="3" t="s">
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="BB1" s="3"/>
+      <c r="BB1" s="2"/>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -45315,7 +45446,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -45611,10 +45742,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DE52F0-FA25-3147-9398-011447F75847}">
-  <dimension ref="A1:W156"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -45622,8 +45753,8 @@
     <col min="2" max="2" width="41.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.875" customWidth="1"/>
-    <col min="8" max="8" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="120.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
+    <col min="23" max="23" width="120.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -46061,6 +46192,9 @@
       <c r="B17" t="s">
         <v>400</v>
       </c>
+      <c r="C17" t="s">
+        <v>926</v>
+      </c>
       <c r="D17" t="s">
         <v>541</v>
       </c>
@@ -46075,7 +46209,7 @@
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Standing Up Straight&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Left Hip, Right Hip</v>
+        <v>Start: Standing Up Straight&lt;br&gt;Bring your hips forward while still standing up straight. Move them in a circular motion, around your body, returning to center.&lt;br&gt;Primary Body Parts Used: Left Hip, Right Hip</v>
       </c>
       <c r="I17" t="s">
         <v>903</v>
@@ -46085,6 +46219,9 @@
       <c r="B18" t="s">
         <v>401</v>
       </c>
+      <c r="C18" t="s">
+        <v>927</v>
+      </c>
       <c r="D18" t="s">
         <v>541</v>
       </c>
@@ -46099,7 +46236,7 @@
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Standing Up Straight&lt;br&gt;&lt;br&gt;Primary Body Part Used: Chest</v>
+        <v>Start: Standing Up Straight&lt;br&gt;Bring both of your arms straight out in front of your torso. Swing your arms out to the side and behind your back as far as they go, keeping them slightly below shoulder level.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Part Used: Chest</v>
       </c>
       <c r="I18" t="s">
         <v>903</v>
@@ -46109,6 +46246,9 @@
       <c r="B19" t="s">
         <v>402</v>
       </c>
+      <c r="C19" t="s">
+        <v>928</v>
+      </c>
       <c r="D19" t="s">
         <v>541</v>
       </c>
@@ -46123,7 +46263,7 @@
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Standing Bent Over&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Left Shoulder, Right Shoulder, Chest</v>
+        <v>Start: Standing Bent Over&lt;br&gt;Let your arms hang directly below your shoulders. Swing your left arm out to the left, then up as high as it will go. Relax your left arm and let it swing down naturally, while you swing your right arm out to the right, then up as high as it will go.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Shoulder, Right Shoulder, Chest</v>
       </c>
       <c r="I19" t="s">
         <v>903</v>
@@ -46133,6 +46273,9 @@
       <c r="B20" t="s">
         <v>403</v>
       </c>
+      <c r="C20" t="s">
+        <v>929</v>
+      </c>
       <c r="D20" t="s">
         <v>541</v>
       </c>
@@ -46147,7 +46290,7 @@
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Standing Up Straight&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Left Quad, Right Quad, Left Hamstring, Right Hamstring, Left Hip, Right Hip</v>
+        <v>Start: Standing Up Straight&lt;br&gt;Stand on your right leg, letting your left leg hang. Support yourself if needed. Swing your left leg directly in front of you and as high up as it will go. Swing it back down, then directly behind you as far as it will go.&lt;br&gt;Repeat for allotted time, then do the same for your right leg.&lt;br&gt;Primary Body Parts Used: Left Quad, Right Quad, Left Hamstring, Right Hamstring, Left Hip, Right Hip</v>
       </c>
       <c r="I20" t="s">
         <v>903</v>
@@ -46157,6 +46300,9 @@
       <c r="B21" t="s">
         <v>404</v>
       </c>
+      <c r="C21" t="s">
+        <v>930</v>
+      </c>
       <c r="D21" t="s">
         <v>541</v>
       </c>
@@ -46171,7 +46317,7 @@
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Standing Up Straight&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Left Quad, Right Quad, Left Hamstring, Right Hamstring, Left Hip, Right Hip</v>
+        <v>Start: Standing Up Straight&lt;br&gt;Stand on your right leg, letting your left leg hang. Support yourself if needed. Swing your left leg to the left of you and as high up as it will go. Swing it back down, then directly to your right as far as it will go.&lt;br&gt;Repeat for allotted time, then do the same for your right leg.&lt;br&gt;Primary Body Parts Used: Left Quad, Right Quad, Left Hamstring, Right Hamstring, Left Hip, Right Hip</v>
       </c>
       <c r="I21" t="s">
         <v>903</v>
@@ -46181,6 +46327,9 @@
       <c r="B22" t="s">
         <v>405</v>
       </c>
+      <c r="C22" t="s">
+        <v>937</v>
+      </c>
       <c r="D22" t="s">
         <v>541</v>
       </c>
@@ -46195,7 +46344,7 @@
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Standing Up Straight&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Left Hamstring, Right Hamstring, Lower Back, Left Hip, Right Hip</v>
+        <v>Start: Standing Up Straight&lt;br&gt;Step your left leg slightly forward. Keeping your knees unbent, bring your hands down as close to your left foot as you can, hinging at your hips and lower back.&lt;br&gt;Hold position, then relax and repeat with the right side.&lt;br&gt;Primary Body Parts Used: Left Hamstring, Right Hamstring, Lower Back, Left Hip, Right Hip</v>
       </c>
       <c r="I22" t="s">
         <v>903</v>
@@ -46205,6 +46354,9 @@
       <c r="B23" t="s">
         <v>406</v>
       </c>
+      <c r="C23" t="s">
+        <v>931</v>
+      </c>
       <c r="D23" t="s">
         <v>541</v>
       </c>
@@ -46219,7 +46371,7 @@
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Standing Up Straight&lt;br&gt;&lt;br&gt;Primary Body Part Used: Neck</v>
+        <v>Start: Standing Up Straight&lt;br&gt;Bend your neck forward and tilt your head as far forward as you can. Move your neck around in a circular motion, returning to center.&lt;br&gt;Primary Body Part Used: Neck</v>
       </c>
       <c r="I23" t="s">
         <v>903</v>
@@ -46256,6 +46408,9 @@
       <c r="B25" t="s">
         <v>408</v>
       </c>
+      <c r="C25" t="s">
+        <v>928</v>
+      </c>
       <c r="D25" t="s">
         <v>541</v>
       </c>
@@ -46270,7 +46425,7 @@
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Standing Up Straight&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Left Shoulder, Right Shoulder, Chest</v>
+        <v>Start: Standing Up Straight&lt;br&gt;Let your arms hang directly below your shoulders. Swing your left arm out to the left, then up as high as it will go. Relax your left arm and let it swing down naturally, while you swing your right arm out to the right, then up as high as it will go.&lt;br&gt;Repeat.&lt;br&gt;Primary Body Parts Used: Left Shoulder, Right Shoulder, Chest</v>
       </c>
       <c r="I25" t="s">
         <v>903</v>
@@ -46280,6 +46435,9 @@
       <c r="B26" t="s">
         <v>409</v>
       </c>
+      <c r="C26" t="s">
+        <v>932</v>
+      </c>
       <c r="D26" t="s">
         <v>541</v>
       </c>
@@ -46294,7 +46452,7 @@
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Standing Up Straight&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Left Calf, Right Calf</v>
+        <v>Start: Standing Up Straight&lt;br&gt;Bring your right foot forward, bending at the right knee. Move your left foot back, keeping your left leg straight. Lean forward and bring your left foot as close to the ground as you can, stretching your calf.&lt;br&gt;Relax and return to original position, then repeat this with your right leg.&lt;br&gt;Primary Body Parts Used: Left Calf, Right Calf</v>
       </c>
       <c r="I26" t="s">
         <v>903</v>
@@ -46304,6 +46462,9 @@
       <c r="B27" t="s">
         <v>410</v>
       </c>
+      <c r="C27" t="s">
+        <v>933</v>
+      </c>
       <c r="D27" t="s">
         <v>541</v>
       </c>
@@ -46318,7 +46479,7 @@
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Standing Up Straight&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Left Hamstring, Right Hamstring, Left Hip, Right Hip</v>
+        <v>Start: Standing Up Straight&lt;br&gt;Bring your left foot up to thigh level by bending your knees and twisting at the hip. Grab your left foot and left shin with your hands. Keeping your shin parallel to the ground, pull your shin as high off the ground as you can, ideally to hip-level.&lt;br&gt;Hold briefly, then relax and repeat with the right side.&lt;br&gt;Primary Body Parts Used: Left Hamstring, Right Hamstring, Left Hip, Right Hip</v>
       </c>
       <c r="I27" t="s">
         <v>903</v>
@@ -46328,6 +46489,9 @@
       <c r="B28" t="s">
         <v>411</v>
       </c>
+      <c r="C28" t="s">
+        <v>934</v>
+      </c>
       <c r="D28" t="s">
         <v>541</v>
       </c>
@@ -46342,7 +46506,7 @@
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Standing Up Straight&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Left Quad, Right Quad</v>
+        <v>Start: Standing Up Straight&lt;br&gt;Bending your knee, bring your left foot behind you to buttock-level. Grabyour left ankle with your left hand and use your right hand for support on a stationary object if needed. Pull your left foot as high as you can while keeping your keep in the same place, stretching your quad.&lt;br&gt;Hold briefly, then relax and repeat with the right leg.&lt;br&gt;Primary Body Parts Used: Left Quad, Right Quad</v>
       </c>
       <c r="I28" t="s">
         <v>903</v>
@@ -46352,6 +46516,9 @@
       <c r="B29" t="s">
         <v>412</v>
       </c>
+      <c r="C29" t="s">
+        <v>935</v>
+      </c>
       <c r="D29" t="s">
         <v>541</v>
       </c>
@@ -46366,7 +46533,7 @@
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Standing Up Straight&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Lower Back, Upper Back</v>
+        <v>Start: Standing Up Straight&lt;br&gt;Bring your arms up to chest level with your elbows bent. Carefully twist your lower back to rotate your arms to the left, while keeping them in the same position. Go as far left as you are comfortable.&lt;br&gt;Return to the original position and repeat with the right side. &lt;br&gt;Primary Body Parts Used: Lower Back, Upper Back</v>
       </c>
       <c r="I29" t="s">
         <v>903</v>
@@ -46376,6 +46543,9 @@
       <c r="B30" t="s">
         <v>413</v>
       </c>
+      <c r="C30" t="s">
+        <v>936</v>
+      </c>
       <c r="D30" t="s">
         <v>541</v>
       </c>
@@ -46390,7 +46560,7 @@
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Laying Flat on Back with Knees Bent&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Glutes, Abs, Lower Back, Left Hip, Right Hip</v>
+        <v>Start: Laying Flat on Back with Knees Bent&lt;br&gt;Keeping your hands and feet on the ground, arch your full back and raise your hips as high as possible, holding this position briefly.&lt;br&gt;Relax and lower them back down to the ground, then repeat.&lt;br&gt;Primary Body Parts Used: Glutes, Abs, Lower Back, Left Hip, Right Hip</v>
       </c>
       <c r="I30" t="s">
         <v>903</v>
@@ -46400,6 +46570,9 @@
       <c r="B31" t="s">
         <v>414</v>
       </c>
+      <c r="C31" t="s">
+        <v>938</v>
+      </c>
       <c r="D31" t="s">
         <v>541</v>
       </c>
@@ -46414,7 +46587,7 @@
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Standing Up Straight&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Left Calf, Right Calf, Left Hamstring, Right Hamstring, Lower Back, Left Hip, Right Hip</v>
+        <v>Start: Standing Up Straight&lt;br&gt;Step your left leg slightly forward. Keeping your knees unbent, bring your hands down as close to your left foot as you can, hinging at your hips and lower back. While reaching, flex your left ankle so your left foot is curled towards your shin.&lt;br&gt;Hold position, then relax and repeat with the right side.&lt;br&gt;Primary Body Parts Used: Left Calf, Right Calf, Left Hamstring, Right Hamstring, Lower Back, Left Hip, Right Hip</v>
       </c>
       <c r="I31" t="s">
         <v>903</v>
@@ -46532,6 +46705,9 @@
       <c r="B36" t="s">
         <v>102</v>
       </c>
+      <c r="C36" t="s">
+        <v>939</v>
+      </c>
       <c r="D36" t="s">
         <v>540</v>
       </c>
@@ -46546,7 +46722,7 @@
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Crawl Position on Hands and Knees&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Abs, Lower Back</v>
+        <v>Start: Crawl Position on Hands and Knees&lt;br&gt;Keeping your hands and knees on the ground, lower your hips so they are resting on your feet. Round your lower back to further the stretch, keeping your hands in the same place.&lt;br&gt;Hold briefly, then relax and return to the crawl position.&lt;br&gt;Primary Body Parts Used: Abs, Lower Back</v>
       </c>
       <c r="I36" t="s">
         <v>903</v>
@@ -46556,6 +46732,9 @@
       <c r="B37" t="s">
         <v>417</v>
       </c>
+      <c r="C37" t="s">
+        <v>940</v>
+      </c>
       <c r="D37" t="s">
         <v>541</v>
       </c>
@@ -46570,7 +46749,7 @@
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Crawl Position on Hands and Knees&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Abs, Lower Back</v>
+        <v>Start: Crawl Position on Hands and Knees&lt;br&gt;Keeping your hands and knees on the ground, lower your hips so they are resting on your feet. Round your lower back to further the stretch, keeping your hands in the same place.&lt;br&gt;Hold briefly, then relax and return to the crawl position. Reoeat.&lt;br&gt;Primary Body Parts Used: Abs, Lower Back</v>
       </c>
       <c r="I37" t="s">
         <v>903</v>
@@ -46580,6 +46759,9 @@
       <c r="B38" t="s">
         <v>393</v>
       </c>
+      <c r="C38" t="s">
+        <v>920</v>
+      </c>
       <c r="D38" t="s">
         <v>540</v>
       </c>
@@ -46594,7 +46776,7 @@
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Standing with Legs Spread Apart&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Left Hamstring, Right Hamstring, Lower Back, Left Hip, Right Hip</v>
+        <v>Start: Standing with Legs Spread Apart&lt;br&gt;Keeping your knees unbent, bring your hands down as close to the ground as you can, hinging at your hips and lower back.&lt;br&gt;Hold this stretch then raise back up to standing straight.&lt;br&gt;Primary Body Parts Used: Left Hamstring, Right Hamstring, Lower Back, Left Hip, Right Hip</v>
       </c>
       <c r="I38" t="s">
         <v>903</v>
@@ -46604,6 +46786,9 @@
       <c r="B39" t="s">
         <v>394</v>
       </c>
+      <c r="C39" t="s">
+        <v>921</v>
+      </c>
       <c r="D39" t="s">
         <v>540</v>
       </c>
@@ -46618,7 +46803,7 @@
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Standing with Legs Spread Wide Apart&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Left Hamstring, Right Hamstring, Lower Back, Left Hip, Right Hip</v>
+        <v>Start: Standing with Legs Spread Wide Apart&lt;br&gt;Keeping your knees unbent, bring your hands down as close to the ground toes as you can, hinging at your hips and lower back.&lt;br&gt;Hold this stretch then raise back up to standing straight.&lt;br&gt;Primary Body Parts Used: Left Hamstring, Right Hamstring, Lower Back, Left Hip, Right Hip</v>
       </c>
       <c r="I39" t="s">
         <v>903</v>
@@ -46628,6 +46813,9 @@
       <c r="B40" t="s">
         <v>395</v>
       </c>
+      <c r="C40" t="s">
+        <v>922</v>
+      </c>
       <c r="D40" t="s">
         <v>540</v>
       </c>
@@ -46642,7 +46830,7 @@
       </c>
       <c r="H40" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Standing with Legs Spread Apart&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Left Hamstring, Right Hamstring, Lower Back, Left Hip, Right Hip</v>
+        <v>Start: Standing with Legs Spread Apart&lt;br&gt;Keeping your knees unbent, bring your hands down as close to your left foot as you can, hinging at your hips and lower back.&lt;br&gt;Hold this stretch, then relax and repeat with the right side.&lt;br&gt;Primary Body Parts Used: Left Hamstring, Right Hamstring, Lower Back, Left Hip, Right Hip</v>
       </c>
       <c r="I40" t="s">
         <v>903</v>
@@ -46652,6 +46840,9 @@
       <c r="B41" t="s">
         <v>396</v>
       </c>
+      <c r="C41" t="s">
+        <v>923</v>
+      </c>
       <c r="D41" t="s">
         <v>540</v>
       </c>
@@ -46666,7 +46857,7 @@
       </c>
       <c r="H41" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Sitting on Ground with Back Straight and Legs Extended Out&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Left Quad, Right Quad, Left Hamstring, Right Hamstring, Left Hip, Right Hip</v>
+        <v>Start: Sitting on Ground with Back Straight and Legs Extended Out&lt;br&gt;Bring your left foot to the right side of your right knee, bending your left knee. Using your left upper leg for support, twist your back so that you can plant both hands on the ground of the left side of your body, or get as close as you can.&lt;br&gt;Hold this stretch, then relax and repeat with the right side.&lt;br&gt;Primary Body Parts Used: Left Quad, Right Quad, Left Hamstring, Right Hamstring, Left Hip, Right Hip</v>
       </c>
       <c r="I41" t="s">
         <v>903</v>
@@ -46676,6 +46867,9 @@
       <c r="B42" t="s">
         <v>397</v>
       </c>
+      <c r="C42" t="s">
+        <v>924</v>
+      </c>
       <c r="D42" t="s">
         <v>540</v>
       </c>
@@ -46690,7 +46884,7 @@
       </c>
       <c r="H42" t="str">
         <f t="shared" si="0"/>
-        <v>Start: On Back with Legs Up in Air&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Left Hamstring, Right Hamstring, Abs, Lower Back</v>
+        <v>Start: On Back with Legs Up in Air&lt;br&gt;Grab your left foot with your left hand and right foot with right hand, keeping your legs in the air. Attempt to extend your legs by straightening your knees, while still holding on to your feet with your hands.&lt;br&gt;Hold this stretch, then relax and return to the initial position.&lt;br&gt;Primary Body Parts Used: Left Hamstring, Right Hamstring, Abs, Lower Back</v>
       </c>
       <c r="I42" t="s">
         <v>903</v>
@@ -46700,6 +46894,9 @@
       <c r="B43" t="s">
         <v>398</v>
       </c>
+      <c r="C43" t="s">
+        <v>925</v>
+      </c>
       <c r="D43" t="s">
         <v>540</v>
       </c>
@@ -46714,7 +46911,7 @@
       </c>
       <c r="H43" t="str">
         <f t="shared" si="0"/>
-        <v>Start: On Back with Legs Up in Air&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Left Hamstring, Right Hamstring, Abs, Lower Back</v>
+        <v>Start: On Back with Legs Up in Air&lt;br&gt;Grab your left foot with your left hand and right foot with right hand, keeping your legs in the air. Attempt to extend your legs by straightening your knees, while still holding on to your feet with your hands. Move your feet out away from each other by widening your hips.&lt;br&gt;Hold this stretch, then relax and return to the initial position.&lt;br&gt;Primary Body Parts Used: Left Hamstring, Right Hamstring, Abs, Lower Back</v>
       </c>
       <c r="I43" t="s">
         <v>903</v>
@@ -46724,6 +46921,9 @@
       <c r="B44" t="s">
         <v>418</v>
       </c>
+      <c r="C44" t="s">
+        <v>941</v>
+      </c>
       <c r="D44" t="s">
         <v>541</v>
       </c>
@@ -46738,7 +46938,7 @@
       </c>
       <c r="H44" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Standing with Legs Spread Apart&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Left Hamstring, Right Hamstring, Lower Back, Left Hip, Right Hip</v>
+        <v>Start: Standing with Legs Spread Apart&lt;br&gt;Keeping your knees unbent, bring your hands down as close to your left foot as you can, hinging at your hips and lower back. Hold briefly, then move to reach towards the ground in between your feet. Hold briefly again, then move to reach towards your right foot.&lt;br&gt;Hold briefly, then relax and repeat.&lt;br&gt;Primary Body Parts Used: Left Hamstring, Right Hamstring, Lower Back, Left Hip, Right Hip</v>
       </c>
       <c r="I44" t="s">
         <v>903</v>
@@ -46748,6 +46948,9 @@
       <c r="B45" t="s">
         <v>891</v>
       </c>
+      <c r="C45" t="s">
+        <v>942</v>
+      </c>
       <c r="D45" t="s">
         <v>541</v>
       </c>
@@ -46762,7 +46965,7 @@
       </c>
       <c r="H45" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Sitting with Knees Bent&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Left Hamstring, Right Hamstring, Left Hip, Right Hip</v>
+        <v>Start: Sitting with Knees Bent&lt;br&gt;Rotate your left leg so that your left foot is elevated and your left shin is parallel to the ground. Stabilize your left ankle on your right knee and use your arms to move your left shin closer to your chest, stretching your left hip.&lt;br&gt;Hold briefly, then relax and repeat this with your right leg.&lt;br&gt;Primary Body Parts Used: Left Hamstring, Right Hamstring, Left Hip, Right Hip</v>
       </c>
       <c r="I45" t="s">
         <v>903</v>
@@ -46772,6 +46975,9 @@
       <c r="B46" t="s">
         <v>419</v>
       </c>
+      <c r="C46" t="s">
+        <v>943</v>
+      </c>
       <c r="D46" t="s">
         <v>541</v>
       </c>
@@ -46786,7 +46992,7 @@
       </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Crawl Position on Hands and Knees&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Glutes, Abs, Lower Back</v>
+        <v>Start: Crawl Position on Hands and Knees&lt;br&gt;Arch your back as far as you are comfortable, and hold briefly. Relax, then round your back as far as you are comfortable, and hold briefly.&lt;br&gt;Relax and repeat.&lt;br&gt;Primary Body Parts Used: Glutes, Abs, Lower Back</v>
       </c>
       <c r="I46" t="s">
         <v>903</v>
@@ -46796,6 +47002,9 @@
       <c r="B47" t="s">
         <v>420</v>
       </c>
+      <c r="C47" t="s">
+        <v>944</v>
+      </c>
       <c r="D47" t="s">
         <v>541</v>
       </c>
@@ -46810,7 +47019,7 @@
       </c>
       <c r="H47" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Laying Flat on Back with Knees Bent&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Glutes, Abs, Lower Back</v>
+        <v>Start: Laying Flat on Back with Knees Bent&lt;br&gt;Arch your back as far as you are comfortable, and hold briefly.&lt;br&gt;Relax and repeat.&lt;br&gt;Primary Body Parts Used: Glutes, Abs, Lower Back</v>
       </c>
       <c r="I47" t="s">
         <v>903</v>
@@ -46820,6 +47029,9 @@
       <c r="B48" t="s">
         <v>421</v>
       </c>
+      <c r="C48" t="s">
+        <v>945</v>
+      </c>
       <c r="D48" t="s">
         <v>541</v>
       </c>
@@ -46834,7 +47046,7 @@
       </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Sitting on Ground with Back Straight and Legs Extended Out&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Left Quad, Right Quad, Left Hamstring, Right Hamstring, Left Hip, Right Hip</v>
+        <v>Start: Sitting on Ground with Back Straight and Legs Extended Out&lt;br&gt;Bring your left foot to the right side of your right knee, bending your left knee. Using your left upper leg for support, twist your back so that you can plant both hands on the ground of the left side of your body, or get as close as you can.&lt;br&gt;Hold briefly, then relax and repeat with the right side.&lt;br&gt;Primary Body Parts Used: Left Quad, Right Quad, Left Hamstring, Right Hamstring, Left Hip, Right Hip</v>
       </c>
       <c r="I48" t="s">
         <v>903</v>
@@ -46844,6 +47056,9 @@
       <c r="B49" t="s">
         <v>422</v>
       </c>
+      <c r="C49" t="s">
+        <v>947</v>
+      </c>
       <c r="D49" t="s">
         <v>541</v>
       </c>
@@ -46858,7 +47073,7 @@
       </c>
       <c r="H49" t="str">
         <f t="shared" si="0"/>
-        <v>Start: On Back with Legs Up in Air&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Left Hamstring, Right Hamstring, Abs, Lower Back</v>
+        <v>Start: On Back with Legs Up in Air&lt;br&gt;Grab your left foot with your left hand and right foot with right hand, keeping your legs in the air. Extend your legs to be as straight as possible while still holding on to your feet with your hands.&lt;br&gt;Hold this briefly, then relax and repeat.&lt;br&gt;Primary Body Parts Used: Left Hamstring, Right Hamstring, Abs, Lower Back</v>
       </c>
       <c r="I49" t="s">
         <v>903</v>
@@ -46868,6 +47083,9 @@
       <c r="B50" t="s">
         <v>423</v>
       </c>
+      <c r="C50" t="s">
+        <v>946</v>
+      </c>
       <c r="D50" t="s">
         <v>541</v>
       </c>
@@ -46882,7 +47100,7 @@
       </c>
       <c r="H50" t="str">
         <f t="shared" si="0"/>
-        <v>Start: On Back with Legs Up in Air&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Left Hamstring, Right Hamstring, Abs, Lower Back</v>
+        <v>Start: On Back with Legs Up in Air&lt;br&gt;Grab your left foot with your left hand and right foot with right hand, keeping your legs in the air. Move your feet out away from each other as far as you are comfortbale by widening your hips. &lt;br&gt;Hold this briefly, then relax and repeat.&lt;br&gt;Primary Body Parts Used: Left Hamstring, Right Hamstring, Abs, Lower Back</v>
       </c>
       <c r="I50" t="s">
         <v>903</v>
@@ -46892,6 +47110,9 @@
       <c r="B51" t="s">
         <v>424</v>
       </c>
+      <c r="C51" t="s">
+        <v>948</v>
+      </c>
       <c r="D51" t="s">
         <v>541</v>
       </c>
@@ -46906,7 +47127,7 @@
       </c>
       <c r="H51" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Standing with Legs Spread Wide Apart&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Left Hamstring, Right Hamstring, Abs, Lower Back, Left Hip, Right Hip</v>
+        <v>Start: Standing with Legs Spread Wide Apart&lt;br&gt;Squat all the way down as far as you are able to, so that you can maintain the position comfortably. Squat up slighly, then use gravity to drop back down to your original position, bouncing your hips.&lt;br&gt;Repeat for allotted time.&lt;br&gt;Primary Body Parts Used: Left Hamstring, Right Hamstring, Abs, Lower Back, Left Hip, Right Hip</v>
       </c>
       <c r="I51" t="s">
         <v>903</v>
@@ -46916,6 +47137,9 @@
       <c r="B52" t="s">
         <v>425</v>
       </c>
+      <c r="C52" t="s">
+        <v>949</v>
+      </c>
       <c r="D52" t="s">
         <v>541</v>
       </c>
@@ -46930,7 +47154,7 @@
       </c>
       <c r="H52" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Standing Up Straight&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Left Quad, Right Quad, Left Hamstring, Right Hamstring, Left Hip, Right Hip</v>
+        <v>Start: Standing Up Straight&lt;br&gt;Bring your left knee straight up as high as you can. Grab your left shin with both hands, then use your arms to pull your left knee as high as you are comfortable pulling it. &lt;br&gt;Releax and repeat with the right leg.&lt;br&gt;Primary Body Parts Used: Left Quad, Right Quad, Left Hamstring, Right Hamstring, Left Hip, Right Hip</v>
       </c>
       <c r="I52" t="s">
         <v>903</v>
@@ -46940,6 +47164,9 @@
       <c r="B53" t="s">
         <v>428</v>
       </c>
+      <c r="C53" t="s">
+        <v>950</v>
+      </c>
       <c r="D53" t="s">
         <v>532</v>
       </c>
@@ -46955,7 +47182,7 @@
       </c>
       <c r="H53" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Standing Up Straight&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Left Quad, Right Quad, Abs, Left Hip, Right Hip</v>
+        <v>Start: Standing Up Straight&lt;br&gt;Bring your left knee straight up as high as you can. Lower it immediately, and while lowering it raise your right knee up, and repeat.&lt;br&gt;This should be similar to a 'running in place' motion.&lt;br&gt;Primary Body Parts Used: Left Quad, Right Quad, Abs, Left Hip, Right Hip</v>
       </c>
       <c r="I53" t="s">
         <v>903</v>
@@ -46965,6 +47192,9 @@
       <c r="B54" t="s">
         <v>429</v>
       </c>
+      <c r="C54" t="s">
+        <v>951</v>
+      </c>
       <c r="D54" t="s">
         <v>456</v>
       </c>
@@ -46980,7 +47210,7 @@
       </c>
       <c r="H54" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Standing with Legs Shoulder-Width Apart&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Left Bicep, Right Bicep, Left Tricep, Right Tricep, Left Shoulder, Right Shoulder</v>
+        <v>Start: Standing with Legs Shoulder-Width Apart&lt;br&gt;Raise your arms to be straight out to the side at shoulder-level. Hinging at the hips, squat down and twist your torso to the left while keeping your arms in the same position. Keep going until your left hand touches the ground, or as far down as you are comfortable.&lt;br&gt;Return to original position then repeat on right side. &lt;br&gt;Primary Body Parts Used: Left Bicep, Right Bicep, Left Tricep, Right Tricep, Left Shoulder, Right Shoulder</v>
       </c>
       <c r="I54" t="s">
         <v>903</v>
@@ -46990,6 +47220,9 @@
       <c r="B55" t="s">
         <v>430</v>
       </c>
+      <c r="C55" t="s">
+        <v>952</v>
+      </c>
       <c r="D55" t="s">
         <v>533</v>
       </c>
@@ -47005,7 +47238,7 @@
       </c>
       <c r="H55" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Laying Flat on Back&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Abs, Lower Back, Left Hip, Right Hip</v>
+        <v>Start: Laying Flat on Back&lt;br&gt;Raise your legs to be about 6 inches above the ground. Raise your left foot to be slightly higher and simultaneously lower your right foot to be slightly lower, while keeping your legs straight.&lt;br&gt;Lower your left foot and raise your right foot, then repeat this motion for the allotted time.&lt;br&gt;Primary Body Parts Used: Abs, Lower Back, Left Hip, Right Hip</v>
       </c>
       <c r="I55" t="s">
         <v>903</v>
@@ -47015,6 +47248,9 @@
       <c r="B56" t="s">
         <v>431</v>
       </c>
+      <c r="C56" t="s">
+        <v>953</v>
+      </c>
       <c r="D56" t="s">
         <v>431</v>
       </c>
@@ -47030,7 +47266,7 @@
       </c>
       <c r="H56" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Laying Flat on Stomach with Arms Extended Out in Front&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Glutes, Lower Back</v>
+        <v>Start: Laying Flat on Stomach with Arms Extended Out in Front&lt;br&gt;Flex your lower back, upper back, and buttocks so that your feet, knees, and arms come off the ground slightly.&lt;br&gt;Hold this position briefly, then return to the original position and repeat.&lt;br&gt;Primary Body Parts Used: Glutes, Lower Back</v>
       </c>
       <c r="I56" t="s">
         <v>903</v>
@@ -47040,6 +47276,9 @@
       <c r="B57" t="s">
         <v>432</v>
       </c>
+      <c r="C57" t="s">
+        <v>954</v>
+      </c>
       <c r="D57" t="s">
         <v>533</v>
       </c>
@@ -47055,7 +47294,7 @@
       </c>
       <c r="H57" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Laying Flat on Back with Knees Bent&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Abs, Lower Back, Left Hip, Right Hip</v>
+        <v>Start: Laying Flat on Back with Knees Bent&lt;br&gt;Flex your abs to raise your head and upper back around 6 inches off the ground. Lean left and reach your left arm to your left foot, while keeping your back the same height above the ground. Go back to center and lean right to reach your right arm to your right foot, again keeping your back the same height above the ground.&lt;br&gt;Repeat for allotted time.&lt;br&gt;Primary Body Parts Used: Abs, Lower Back, Left Hip, Right Hip</v>
       </c>
       <c r="I57" t="s">
         <v>903</v>
@@ -47065,6 +47304,9 @@
       <c r="B58" t="s">
         <v>433</v>
       </c>
+      <c r="C58" t="s">
+        <v>955</v>
+      </c>
       <c r="D58" t="s">
         <v>539</v>
       </c>
@@ -47080,7 +47322,7 @@
       </c>
       <c r="H58" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Plank Position on Forearms&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Abs, Lower Back, Left Tricep, Right Tricep, Left Shoulder, Right Shoulder</v>
+        <v>Start: Plank Position on Forearms&lt;br&gt;Raise your hips slightly while keeping your arms and feet in the same place. Twist your hips to the left, so they are slightly above the ground on your left side.&lt;br&gt;Return your hips back up, then do the same on the right side and repeat for the allotted time.&lt;br&gt;Primary Body Parts Used: Abs, Lower Back, Left Tricep, Right Tricep, Left Shoulder, Right Shoulder</v>
       </c>
       <c r="I58" t="s">
         <v>903</v>
@@ -47090,6 +47332,9 @@
       <c r="B59" t="s">
         <v>434</v>
       </c>
+      <c r="C59" t="s">
+        <v>956</v>
+      </c>
       <c r="D59" t="s">
         <v>536</v>
       </c>
@@ -47105,7 +47350,7 @@
       </c>
       <c r="H59" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Standing Up Straight&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Left Calf, Right Calf, Left Quad, Right Quad</v>
+        <v>Start: Standing Up Straight&lt;br&gt;Raise your left foot slightly off the ground. Repeatedly switch raising your left footup  with your right foot down and your right foot up with your left foot down as fast as you are able to do.&lt;br&gt;Continue for the allotted period of time.&lt;br&gt;Primary Body Parts Used: Left Calf, Right Calf, Left Quad, Right Quad</v>
       </c>
       <c r="I59" t="s">
         <v>903</v>
@@ -47115,12 +47360,15 @@
       <c r="B60" t="s">
         <v>435</v>
       </c>
+      <c r="C60" t="s">
+        <v>957</v>
+      </c>
       <c r="D60" t="s">
         <v>532</v>
       </c>
       <c r="E60">
         <f>IF((_xlfn.XLOOKUP(B60,Exercises!B:B,Exercises!C:C,0)+_xlfn.XLOOKUP(B60,Exercises!B:B,Exercises!D:D,0))/2=0,"",(_xlfn.XLOOKUP(B60,Exercises!B:B,Exercises!C:C,0)+_xlfn.XLOOKUP(B60,Exercises!B:B,Exercises!D:D,0))/2)</f>
-        <v>2.125</v>
+        <v>0.875</v>
       </c>
       <c r="F60" t="s">
         <v>821</v>
@@ -47130,7 +47378,7 @@
       </c>
       <c r="H60" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Standing Up Straight&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Left Hamstring, Right Hamstring, Glutes</v>
+        <v>Start: Standing Up Straight&lt;br&gt;Bending at the left knee, bring your left foot behind you to buttock level while keeping your left knee in the same place. Lower it immediately, and while lowering it raise your right foot up, and repeat.&lt;br&gt;This should be similar to a 'running in place' motion.&lt;br&gt;Primary Body Parts Used: Left Hamstring, Right Hamstring, Glutes</v>
       </c>
       <c r="I60" t="s">
         <v>903</v>
@@ -47140,6 +47388,9 @@
       <c r="B61" t="s">
         <v>436</v>
       </c>
+      <c r="C61" t="s">
+        <v>958</v>
+      </c>
       <c r="D61" t="s">
         <v>532</v>
       </c>
@@ -47155,7 +47406,7 @@
       </c>
       <c r="H61" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Standing Up Straight&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Left Quad, Right Quad, Abs, Left Hip, Right Hip</v>
+        <v>Start: Standing Up Straight&lt;br&gt;Bring your left knee straight up as high as you can. Keeping your left knee in the same place, kick your left foot straight out in front of you, then lower it down.&lt;br&gt;Do the same for the right leg and repeat for the allotted time.&lt;br&gt;Primary Body Parts Used: Left Quad, Right Quad, Abs, Left Hip, Right Hip</v>
       </c>
       <c r="I61" t="s">
         <v>903</v>
@@ -47165,6 +47416,9 @@
       <c r="B62" t="s">
         <v>437</v>
       </c>
+      <c r="C62" t="s">
+        <v>959</v>
+      </c>
       <c r="D62" t="s">
         <v>532</v>
       </c>
@@ -47180,7 +47434,7 @@
       </c>
       <c r="H62" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Standing Up Straight&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Left Quad, Right Quad, Abs, Left Hip, Right Hip</v>
+        <v>Start: Standing Up Straight&lt;br&gt;Bring your left knee straight up as high as you can. Keeping your left knee in the same place, kick your left foot out to your left side as far as you can, then lower it down.&lt;br&gt;Do the same for the right leg and repeat for the allotted time.&lt;br&gt;Primary Body Parts Used: Left Quad, Right Quad, Abs, Left Hip, Right Hip</v>
       </c>
       <c r="I62" t="s">
         <v>903</v>
@@ -47190,6 +47444,9 @@
       <c r="B63" t="s">
         <v>438</v>
       </c>
+      <c r="C63" t="s">
+        <v>916</v>
+      </c>
       <c r="D63" t="s">
         <v>534</v>
       </c>
@@ -47205,7 +47462,7 @@
       </c>
       <c r="H63" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Laying Flat on Back with Knees Bent&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Glutes, Abs, Lower Back, Left Hip, Right Hip</v>
+        <v>Start: Laying Flat on Back with Knees Bent&lt;br&gt;Keeping your shoulders and feet on the ground, arch your lower back and raise your hips as high as possible, holding this position briefly.&lt;br&gt;Hold this position briefly, then lower back down to the ground and repeat.&lt;br&gt;Primary Body Parts Used: Glutes, Abs, Lower Back, Left Hip, Right Hip</v>
       </c>
       <c r="I63" t="s">
         <v>903</v>
@@ -47215,6 +47472,9 @@
       <c r="B64" t="s">
         <v>439</v>
       </c>
+      <c r="C64" t="s">
+        <v>960</v>
+      </c>
       <c r="D64" t="s">
         <v>533</v>
       </c>
@@ -47230,7 +47490,7 @@
       </c>
       <c r="H64" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Laying Flat on Back with Knees Bent&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Abs, Lower Back, Left Hip, Right Hip</v>
+        <v>Start: Laying Flat on Back with Knees Bent&lt;br&gt;Flex your abs to raise your head and upper back off the ground as high as you can. If you are able, touch your elbows to your knees.&lt;br&gt;Hold briefly, then return to original position and repeat for allotted time.&lt;br&gt;Primary Body Parts Used: Abs, Lower Back, Left Hip, Right Hip</v>
       </c>
       <c r="I64" t="s">
         <v>903</v>
@@ -47240,6 +47500,9 @@
       <c r="B65" t="s">
         <v>440</v>
       </c>
+      <c r="C65" t="s">
+        <v>961</v>
+      </c>
       <c r="D65" t="s">
         <v>533</v>
       </c>
@@ -47255,7 +47518,7 @@
       </c>
       <c r="H65" t="str">
         <f t="shared" si="0"/>
-        <v>Start: Sitting with Knees Bent and Feet Slightly Elevated off Ground&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Abs, Lower Back, Left Hip, Right Hip</v>
+        <v>Start: Sitting with Knees Bent and Feet Slightly Elevated off Ground&lt;br&gt;Extend your feet out in front of you and lower your back slightly. Your knees should still be bent, but less so than before. Flexing your abs, pull your feet in and back up back to the original position.&lt;br&gt;Repeat for allotted time.&lt;br&gt;Primary Body Parts Used: Abs, Lower Back, Left Hip, Right Hip</v>
       </c>
       <c r="I65" t="s">
         <v>903</v>
@@ -47265,6 +47528,9 @@
       <c r="B66" t="s">
         <v>441</v>
       </c>
+      <c r="C66" t="s">
+        <v>960</v>
+      </c>
       <c r="D66" t="s">
         <v>533</v>
       </c>
@@ -47280,7 +47546,7 @@
       </c>
       <c r="H66" t="str">
         <f t="shared" si="0"/>
-        <v>Start: On Back with Legs Up and Knees Bent&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Abs, Lower Back, Left Hip, Right Hip</v>
+        <v>Start: On Back with Legs Up and Knees Bent&lt;br&gt;Flex your abs to raise your head and upper back off the ground as high as you can. If you are able, touch your elbows to your knees.&lt;br&gt;Hold briefly, then return to original position and repeat for allotted time.&lt;br&gt;Primary Body Parts Used: Abs, Lower Back, Left Hip, Right Hip</v>
       </c>
       <c r="I66" t="s">
         <v>903</v>
@@ -47290,6 +47556,9 @@
       <c r="B67" t="s">
         <v>442</v>
       </c>
+      <c r="C67" t="s">
+        <v>962</v>
+      </c>
       <c r="D67" t="s">
         <v>533</v>
       </c>
@@ -47305,7 +47574,7 @@
       </c>
       <c r="H67" t="str">
         <f t="shared" ref="H67:H130" si="1">F67&amp;"&lt;br&gt;"&amp;SUBSTITUTE(C67,"`","&lt;br&gt;")&amp;"&lt;br&gt;"&amp;G67</f>
-        <v>Start: Sitting with Knees Bent and Feet Slightly Elevated off Ground&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Abs, Lower Back, Left Hip, Right Hip</v>
+        <v>Start: Sitting with Knees Bent and Feet Slightly Elevated off Ground&lt;br&gt;Keeping your knees and back in the same position, twist your body to the left and bring your hands to the ground on your left side. Pause, then return to the original position and do the same on the right side.&lt;br&gt;Repeat for allotted time. &lt;br&gt;Primary Body Parts Used: Abs, Lower Back, Left Hip, Right Hip</v>
       </c>
       <c r="I67" t="s">
         <v>903</v>
@@ -47315,6 +47584,9 @@
       <c r="B68" t="s">
         <v>443</v>
       </c>
+      <c r="C68" t="s">
+        <v>963</v>
+      </c>
       <c r="D68" t="s">
         <v>533</v>
       </c>
@@ -47330,7 +47602,7 @@
       </c>
       <c r="H68" t="str">
         <f t="shared" si="1"/>
-        <v>Start: On Back with Legs Up and Knees Bent&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Abs, Lower Back, Left Hip, Right Hip</v>
+        <v>Start: On Back with Legs Up and Knees Bent&lt;br&gt;Flex your abs to raise your head and upper back off the ground as high as you can. On the tap up, twist your torso to the left, so your right elbow touches your knees (or get as close as you can).Hold briefly, then return to original position and do the same on the right side.&lt;br&gt;Repeat for allotted time.&lt;br&gt;Primary Body Parts Used: Abs, Lower Back, Left Hip, Right Hip</v>
       </c>
       <c r="I68" t="s">
         <v>903</v>
@@ -47340,6 +47612,9 @@
       <c r="B69" t="s">
         <v>444</v>
       </c>
+      <c r="C69" t="s">
+        <v>964</v>
+      </c>
       <c r="D69" t="s">
         <v>535</v>
       </c>
@@ -47355,7 +47630,7 @@
       </c>
       <c r="H69" t="str">
         <f t="shared" si="1"/>
-        <v>Start: Standing Up Straight&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Left Quad, Right Quad, Glutes</v>
+        <v>Start: Standing Up Straight&lt;br&gt;Bring your left leg out directly in front of you and plant your left foot on the ground. Bend both of your knees so that your right knee goes down to the ground, or is as low as you can do. Straighten your knees so that your legs are straight again.&lt;br&gt;Return back to the original position and do the same for the right side, repeating for the allotted time. &lt;br&gt;Primary Body Parts Used: Left Quad, Right Quad, Glutes</v>
       </c>
       <c r="I69" t="s">
         <v>903</v>
@@ -47365,6 +47640,9 @@
       <c r="B70" t="s">
         <v>445</v>
       </c>
+      <c r="C70" t="s">
+        <v>965</v>
+      </c>
       <c r="D70" t="s">
         <v>535</v>
       </c>
@@ -47380,7 +47658,7 @@
       </c>
       <c r="H70" t="str">
         <f t="shared" si="1"/>
-        <v>Start: Standing Up Straight&lt;br&gt;&lt;br&gt;Primary Body Parts Used: Left Calf, Right Calf, Left Quad, Right Quad, Glutes</v>
+        <v>Start: Standing Up Straight&lt;br&gt;Bring your left leg out directly in front of you and plant your left foot on the ground. Bend both of your knees so that your right knee goes down to the ground, or is as low as you can do. From this position, jump up and switch your leg position so that your right leg is in front and your left leg is in back. Once back down, bend both of your knees so that your left knee goes down to the ground, or is as low as you can do.&lt;br&gt;Repeat for the allotted time. &lt;br&gt;Primary Body Parts Used: Left Calf, Right Calf, Left Quad, Right Quad, Glutes</v>
       </c>
       <c r="I70" t="s">
         <v>903</v>
@@ -49546,7 +49824,7 @@
   <dimension ref="A1:AG123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -49586,36 +49864,36 @@
       <c r="A1" t="s">
         <v>377</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3" t="s">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3" t="s">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
